--- a/filtered_data/final_result/final_result.xlsx
+++ b/filtered_data/final_result/final_result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="167">
   <si>
     <t>时间</t>
   </si>
@@ -220,9 +220,6 @@
     <t>腊八节，你只知道吃腊八粥？</t>
   </si>
   <si>
-    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=2650316146&amp;idx=1&amp;sn=c3c210756e8af59cdb802f93c10d5170&amp;chksm=87ba6a26b0cde330659198aaee1276c04b2710b5699bb46b14e140b8a20bed56bde45e3ab7dc#rd</t>
-  </si>
-  <si>
     <t>每年的十二月初八是腊月最重大的节日，旧时人们称之为“腊日”，俗称“腊八节”。从先秦起，腊八节就是用来祭祀祖先和神灵，祈求丰收和吉祥的节日。腊八节除祭祖敬神的活动外，人们还要逐疫。这项活动起源于古代的傩（古代驱鬼避疫的仪式）。直到今天，腊月击鼓驱疫之俗在一些地区仍有留存。“腊八”这一天有喝腊八粥的习俗。腊八粥是用八种当年收获的新鲜粮食和瓜果煮成，一般都为甜味粥。一些地区有吃腊八咸粥的习俗，粥内除大米、小米、绿豆、豇豆、花生、大枣等原料外，还要加萝卜、白菜、粉条、海带、豆腐等。中国喝腊八粥的的历史，已有一千多年。最早开始于宋代。每逢腊八这一天，家家户户也要做腊八粥，祭祀祖先；同时，合家团聚在一起食用，馈赠亲朋好友。 中国各地腊八粥的花样、品种繁多。人们在腊月初七的晚上，就开始忙碌起来，洗米、泡果、拨皮、去核、精拣然后在半夜时分开始煮，煮开后用微火炖，一直炖到第二天的清晨，腊八粥才算熬好了。腊八粥熬好之后，要先敬神祭祖。之后要赠送亲友，最后才是全家人食用。吃剩的腊八粥，保存着吃了几天还有剩下来的，却是好兆头，取其"年年有余"的意义。腊八节除了食用腊八粥这种最常见食物，以下这几种传统食物也可以在腊八时吃:腊八面：腊八面，即腊八节的节令食品。地方传统面食，流行于陕西关中地区。在陕西省渭北一带的澄城地区，腊八节一般是不喝粥的，每年的农历腊月初八早上，家家户户都要吃碗腊八面。以面和各种豆类(红豆为主)为原料，面需做成韭叶面(韭菜叶的宽度相等的面条)备用; 红豆提前泡一晚，腊八这天用来熬汤，待水开时转小火至红豆熟透，中火煮面。同时熟油将葱花爆香，面煮好后将葱花油泼入锅中。腊八豆腐：腊八豆腐是安徽省黟县地区汉族民间传统小吃之一。在春节前夕的腊月初八，家家户户都要晒制豆腐，民间将这种晒制的豆腐，便称作“腊八豆腐”。“腊八豆腐”平时用草绳悬挂在通风处晾着，吃时摘取，一般可晾放三个月不变质、变味。它既可以单独吃，也可与肉类同炒、同炖。腊八蒜：泡腊八蒜是一道主要流行于北方，尤其是华北地区的汉族传统小吃，是腊八节节日食俗。泡腊八蒜指在腊八这天用醋泡蒜，浸泡二十几天后，正值春节，由于醋的浸泡，蒜整体呈碧绿，非常好看，而醋也具有了蒜的辣味。提到腊八蒜，很多人禁不住会问：“为什么腊八蒜通体是绿色的？”腊八蒜制作过程不见阳光，产生的绿色并非叶绿素，而是大蒜绿色素。腌制腊八蒜需要具备两个条件，一个是要用低温储藏过的大蒜（对品种没要求），只有低温才能激活休眠的蒜酶。腊八蒜要在冬天腌制，主要是因为这时的大蒜大多经过低温储藏，蒜酶被激活。另外一个条件是要有醋，在足够酸的条件下才会促进大蒜变绿。大蒜中的这种蒜酶存在大蒜的细胞内，正常情况下是处于休眠状态的，当蒜酶从细胞里被释放出来以后，遇到低温的情况下就会起到催化作用，让大蒜中的硫化物转化为大蒜色素，首先生成的是蒜蓝素，然后再由蒜蓝素转化为蒜绿素，最终让大蒜变成漂亮的绿色。参考资料：中国食品科技网http://www.tech-food.com/kndata/detail/k0161200.htm长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
   </si>
   <si>
     <t>国际土壤日说微生物</t>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=2650316046&amp;idx=1&amp;sn=e7475af0aacf967693a336f781e111c3&amp;chksm=87ba6a5ab0cde34c0d6959c502abe461ca24d9eca05d8a6e75a593511930f559cc2f18674f3f#rd</t>
   </si>
   <si>
     <t xml:space="preserve">12月5日是世界土壤日，国际粮农组织希望通过这个活动将人类与土壤联系起来，提高人民对土壤重要性的认识。土壤是农业发展和生态系统可持续性的根基。土壤为粮食、饲料、燃料和纤维生产、清洁水源、养分循环、有机碳储存以及全球四分之一的生物多样性奠定了基础。土壤既是建筑的基础，也是建材的来源。然而，土壤也是一种有限的自然资源，在人类的时间尺度上是一种非再生资源。尽管土壤在人类生活中发挥着根本的作用，但由于使用不当、人口压力增加、对此重要自然资源治理不善，土壤的退化正在加剧。为了养活不断增加的人口，满足其对生物质（能源）、纤维、饲料和其他产品的需要，保护土壤健康已成为一项优先重点，只有全世界共同努力才能予以保证。 食物开始的地方地球上四分之一的生物生活在土壤中，包括数以十亿计的微生物，例如细菌、真菌和原生动物，以及成千上万种昆虫、螨虫和蠕虫。一汤匙健康土壤中含有的微生物数量比地球上的总人口数量都多。对人类来说，土壤是“食物开始的地方”，它为全球粮食生产提供了关键的自然环境。同时土壤为人类提供了生存空间以及关键的生态系统服务，从而对水资源的调节与供给，气候管理，生态多样性保护，碳隔离和文化服务起到了重要作用。近年来，土壤受到了人口增长，食物需求增加和土地使用竞争的压力，大约全球33％的土壤出现退化的状况。中国由于农业生产承担着13亿人口的重负，耕地利用强度高，化肥用量过大，对土壤造成了巨大的伤害，耕地质量更是连年下降，对中国农业的可持续发展带来巨大挑战。小小微生物，作用顶呱呱解决资源瓶颈与需求增长的关键在技术突破，微生物是其中的重要工具。土壤的形成及其形成其肥力的提高有赖于微生物的作用。土壤中含氮物质的最初来源是微生物的固氮作用。土壤中含氮物质的积累、转化和损失，土壤中有机质尤其是腐殖质的形成和转化、土壤团聚结构的形成、土壤中岩石矿物变为可溶性的植物可吸收态无机化合物等等过程都与微生物的生命活动相关——由于微生物的活动，使得土壤具有生物活性，推动着自然界中最重要的物质循环，并改善着土壤的持水、透气、供肥、保肥和冷热的调节能力，有助于农业生产。给每颗玉米种子十万护卫天使12月5日世界土壤日之际，由诺维信和孟山都组成的生物农业联盟在全球推出微生物拌种剂AcceleronB-300，率先把微生物制剂引入种子处理剂，让每颗种子在下地的时候就得到数以十万计的微生物呵护，大大提高对土壤中营养物质、尤其是无机磷的吸收能力，同时增加对不利环境的抗逆性，在减少耕作对环境影响的同时实现玉米增产。B-300的活跃成分是来自自然界的拜莱青霉。上世纪九十年代加拿大科学家首先在自然界分离出这个菌株，十多年的大田试验已经验证了它在增产、抗逆和减少磷肥施用量的多重好处。2013年诺维信和孟山都结成生物农业联盟后，结合双方优势，成功地将产品的货架期延长到两年，并解决了微生物与拌种剂其它化学成分之间的冲突，从而成为世界首个微生物拌种剂，大大方便了农民的使用，还降低使用成本。这是微生物制剂全面整合进入现代规模农业、与大型农具协同的重要里程碑。长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。 </t>
@@ -253,6 +247,306 @@
   </si>
   <si>
     <t>世界水资源日1993年，联合国大会作出决议，将每年的3月22日确立为世界水资源日。众所周知，水是生命的根本，但地球上97%的水源中可供人类利用的淡水资源不足淡水资源总量的1%，仅占全部水源的0.01%。而且随着人类的工业发展和人口数量的不断增加，如何解决水资源短缺与水污染问题已经成为全人类需要共同面对的重大课题。也许你不曾了解，我们赖以生存的世界正在悄然发生着变化。目前，全世界每年约有4200亿立方米的污水排入江河湖海，污染了5.5亿立方米的淡水，这相当于全球径流总量的14%以上。这些被污染的水不仅加剧了地球环境问题，更是每时每刻伤害着人们的身体健康。案例1在发展中国家，每年约有10亿人在日常生活中使用着不清洁的饮用水。孟加拉国由于饮用水受到砷的污染，有超过总人口40％的人深受其害，在孟加拉国南部地区，每10个成人中就有1个因为砷中毒引起的癌症死亡。这也被世界卫生组织称为是“史上最大饮用水中毒案”。案例2我国每年的人均水资源拥有量仅为2250立方米，不足世界平均水平的1/4。在我国600多个城市中，有300余座城市缺水，其中严重缺水城市有100余个，每年因缺水造成经济损失约2000亿元人民币。污水处理已然刻不容缓。可大多数的污水处理方法的成本和技术难度一直居高不下，这也让不少国家和中小型企业愁眉不展。相较于其他传统的方法，生物增效技术正在逐渐受到大家的关注。 诺维信为废水治理提供新思路诺维信的微生物制剂可以提高废水通过膜单元的流速，使MBR技术过程和污水处理厂的日常运行更加高效。除此之外，诺维信的生物增效技术同样能减少污水处理的运行成本，简化操作程序，提高运行效率。诺维信高效微生物BioRemove5150中含有精选的微生物组合，在经过混和后可处理范围广泛的高度复杂性污水。在用于工业污水中，可改善 COD 去除效果并提高污水处理厂的稳定性。诺维信的生物增效技术可以减少污水处理的运行成本，简化操作程序，提高运行效率。通过添加针对性优势菌种，生物增效技术可提升固有微生物菌群对工艺波动的反应能力或对某些成分的降解能力，进而达到改善废水处理的目的。其主要应用包括新工厂启动、提高稳定性以及异常恢复，还可协助低温废水处理、异味控制和控制某些丝状菌。可以预见，在对环保和可持续发展日益重视的今天，生物增效技术会是未来污水治理技术的一大方向。在诺维信工厂自身的运营管理中，我们对如何把废水处理运用到能源生产上也有着独到的想法。传统的好氧法处理使废水中大约50%的有机物转换为了污泥，而诺维信在酶制剂生产所产生的废水中采用的厌氧法处理可使仅10%的有机物转换为污泥，剩余90%则转换为能够发电产热的甲烷。2013年，诺维信在位于丹麦凯隆堡的基地中成功设置了废水厌氧处理设施。满负荷运转的情况下，该反应装置的运行成本可进一步降低，并且每年减少大约2万吨的二氧化碳排放量。不积硅步，无以至千里。不积小流，无以成江海。如果你还未行动起来，那么就让我们从世界水资源日的这一天开启节水之旅吧！长按下方二维码关注我们了解诺维信中国运营业务， 领略生物技术神奇魅力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺维信邀您光临中国国际酒、饮料制造技术及设备展览会|10月10-14日</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=2650315833&amp;idx=1&amp;sn=78a06993d3e54ebdf09a976c7a283516&amp;chksm=87ba6b6db0cde27b101a047572a3a701e8648f9dd54b7ac3328d786efa3efc674e54c2d1b740#rd</t>
+  </si>
+  <si>
+    <t>2016中国国际酒、饮料制造技术及设备展览会即将在上海新国际博览中心精彩呈现，诺维信邀您光临本届展览会。让我们携手为您的啤酒工业开启通往未来的新机遇。展会时间 ：2016年10月10-14日展会地点 ：上海新国际博览中心展 位 号  ：W1 - 1P212诺维信为您提供全面的产品组合以及优质的服务，只为达成一个共同的目标——协助您以创新的方式优化产品，工艺，同时增加收益。让我们同心协力，用您现有的产品组合更好地迎合当地消费者的需求。此外，我们的解决方案允许使用多种原料，带给您前所未有的新工艺，确保您能通过效益最高的方法生产出高品质的啤酒。• 优化生产工艺整个啤酒生产工艺中有很多可以优化的地方，而且我们的优化方式不会影响产品质量。我们提供的多种解决方案能带给您前所未有的新工艺，协助您找到利用生产力的卓越新方式。与此同时，不论使用哪种原料，都能帮您降低能耗和水耗。• 提高生产效益酶不仅是加工助剂，还能作为战略工具。比如说，酶能够利用本地原料进行生产，这样不仅能降低投入成本，还能促进本地经济增长。在某些地区，使用其他本地原料进行生产可能面临着严峻的工艺挑战，而在这种情况下，酶对原料选择的灵活性让您得以重塑啤酒生产工艺。• 提升产品品质酶能够用于高效生产各种美味的啤酒以及其他谷物酿制的饮料。让我们携手探索优化现有产品以及开发新产品的更多可能。长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。</t>
+  </si>
+  <si>
+    <t>存放不当会营养流失!夏日食物保存秘笈都在这里啦!</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=2650315589&amp;idx=1&amp;sn=1a006808e1ac2c5c7cab532b0552ec29&amp;chksm=87ba6c11b0cde50714b192ec0ffb5110cdd8d6fdde3cd62c871fc41b456597d519360dc54a7c#rd</t>
+  </si>
+  <si>
+    <t>炎炎夏日，你最讨厌什么？汗流不止所带来的全身黏糊糊的感觉？无处不在的紫外线？把你叮得瘙痒难忍的蚊子？还是那些来不及食用就变质腐烂的食物产生的难闻气味？相信许多人对夏天食物腐烂都深有体会：在夏天食物特别难保存，很容易就变质了。其实，炎热而潮湿季节食物易腐败变质的原因不外有以下几个，其中几种因素共同作用，加快、加重食物腐败变质现象：自身酶作用：很多食品中不仅有丰富的营养成分和水，还含有很多酶类物质。在温度适宜而潮湿的空气中，这些营养物质在酶的作用下，不断发生一些化学变化。这些变化不仅能使食品中的营养物质损失，而且极易导致食品的腐败变质。如蔬菜、水果腐烂变质大多属于这种反应造成的。发生氧化反应：食品在储藏中最主要的变质因素之一就是氧化。有些食品中含有很多不饱和脂肪酸、芳香物质、色素等不稳定物质，它们能很好地体现食物独特的风味和口感，但是这些物质在烹饪过程中极易被破坏。在温度较高的季节，食物中的这些成分极易被氧化变性，从而产生怪异的味道和口感。别以为只有水果不耐放，容易变坏。其实油炸食品也很容易变质。只要有一点空气，油脂非常容易被氧化。油炸的食品很多，像麻花、丸子等等，大凡油炸食品放久了就会产生一种难闻的气味“哈喇味”，这就是一个信号，代表油脂已经氧化酸败了。细菌污染：各种微生物或细菌污染是夏季、春秋季节食物腐败变质的主要原因。在食品存放、运输、出售过程中，通过水、土壤、空气、用具、器皿、动物和人而污染的食品，在条件适宜的情况下，微生物会大量繁殖，使食品产生一系列复杂变化，以致腐败变质。尤其是鱼、肉、蛋、奶等，因其营养成分高，水分多，酸碱度适宜，非常易于细菌等微生物的繁殖。在夏季因温度高、湿度大更加加重这种反应。食物中营养成分因细菌繁殖破坏，其降解产物氨类、酮酸类、硫尿类等，就是其刺鼻气味产生的原因。看了以上食物腐败变质的原因，相信你会明白炎热的夏季，导致食物腐败变质原因增加，要想防止食物腐败变质，最好的办法就是选择适宜的贮存方法，这样才能减少损失。那么正确的食物储存技巧有哪些呢？1.熟食品进入冷柜前须凉透，食品未充分凉透，突然进入低温环境中，食物中心容易发生质变。食物带入的热气引起水蒸气凝集，能促使霉菌生长，导致整个冷柜内食品霉变。2.冷柜中取出的熟食品必须回锅,冷柜内的温度只能抑制微生物的繁殖，而不能彻底杀灭它们。如食前不彻底加热，食后就可能致病。3.食物解冻后不宜再进冷柜，反复冷冻可使食品组织和营养成分流失。4.冷冻食品宜缓慢解冻,需解冻的冷冻食品宜换置常温冷柜内缓慢解冻，一般不宜采用温热水浇浸等方式强制解冻。若急速解冻，由于冰晶体很快溶化，营养汁液不能及时被纤维和细胞吸收而外溢，会使食品质量下降。要使食品能够长期储藏，除氧是必要手段。从选择抗氧剂的特性来说，利用葡萄糖氧化酶除氧是一种理想的方法，葡萄糖氧化酶具有对氧非常专一的理想抗氧化作用。对于已经发生的氧化变质作用，它可以阻止氧化变质的进一步发展，还可以在未变质时防止氧化变质的发生。葡萄糖氧化酶可以采用各种不同的方式应用于茶叶、冰淇淋、奶粉、罐头等产品的除氧包装，并可设计成各种各样的片剂、涂层、吸氧袋等用于不同产品，这样一来食品就可以放置很久并且保持风味不变了。参考资料：http://www.xywy.com/bj/sx/20120629_772177.html 图片来源于网络长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。</t>
+  </si>
+  <si>
+    <t>今天是世界无烟日 你还在吸烟吗?</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=2650315531&amp;idx=1&amp;sn=b48ba4c523096f339c9f3d22e101b298&amp;chksm=87ba6c5fb0cde549a65ff4b7da6ad21937aecd15a0d649bd6cb2b6bcc4a3ab1abe9cdcc3981f#rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016年5月31日是世界卫生组织发起的第29个世界无烟日。1987年11月，世界卫生组织在日本东京举行的第6届吸烟与健康国际会议上建议把每年的4月7日定为世界无烟日（World No-Tobacco Day），并从1988年开始执行。从1989年开始，世界无烟日改为每年的5月31日。选择5月31日作为世界无烟日是因为第二天是国际儿童节，希望下一代免受烟草危害。世界卫生组织（WHO）在2008年报告中指出，全世界吸烟者总数约为13亿，占世界人口的四分之一左右，每年有500多万人因患吸烟相关疾病死亡。如果现在的吸烟情况得不到有效控制，到2030年，全球每年将有超过800万人死于吸烟相关疾病；到本世纪末，吸烟将累计夺去10亿人的生命，其中超过四分之三的死亡人数集中在发展中国家。吸烟已经成为当今世界最大的公共卫生问题之一，也是早死最重要的可预防因素之一。看似惬意放松的"吞云吐雾"，其实在悄悄地吞噬你和身边人的健康。烟草依赖是一种慢性疾病，烟草燃烧所产生的烟雾是由7000多种化合物所组成的复杂混合物，其中气体占95%，如一氧化碳、氢化氰、挥发性亚硝胺等，颗粒物占5%，包括半挥发物及非挥发物，如烟焦油、尼古丁等。这些化合物绝大多数对人体有害，其中至少有69种为已知的致癌物，如多环芳烃、亚硝胺等，而尼古丁是引起成瘾的物质。吸二手烟同样危害人类的身体健康。二手烟（Second-hand smoking,SHS）指从卷烟或其他烟草制品燃烧端散发的烟雾，且通常与吸烟者散发的烟雾混杂在一起。二手烟中含有几百种已知的有毒或者致癌物质，包括甲醛、苯、氯乙烯、砷、氨和氢氰酸等。二手烟已被美国环保署和国际癌症研究署确定为A类致癌物质。与吸烟者本人吸入的烟雾相比，二手烟的许多致癌和有毒化学物质的浓度更高。吸烟与疾病，尤其是癌症、心血管等慢性病之间的关系已被医学界广泛关注。合理膳食与健康的生活方式是科学抗癌的有效方式之一。在饮食生活当中，选择健康的膳食，可以降低癌症的发病几率。1.每餐必备水果蔬菜 蔬菜和水果是膳食纤维的主要来源，膳食纤维可带走肠道中的有害成分，减少其对胃肠道黏膜细胞的刺激，进而预防癌症的发生。另外，蔬菜水果中还含有一些有抗癌作用的植物化学物，如大蒜素、多酚、原花青素、黄酮类物质等，可以降低癌症风险。2.多粗粮《癌症预防指南》和《饮食、身体活动防癌指南》中都建议人们要以植物性食物为主，而且要尽量选择未经过度加工的粗粮杂豆，少吃精白米面。因为精米去掉了外壳中的大量维生素和膳食纤维，留下的主要是糖类物质，血糖生成指数和血糖负荷都很高，对控制血糖、减肥和抗癌都很不利。而粗粮杂豆则弥补了这些缺点。3.警惕“丙烯酰胺” 丙烯酰胺是一种致癌物质。这种致癌物质多蕴含在咖啡、土豆、谷物等“高碳水化合物、低蛋白质”的食材加工中。温度是形成丙烯酰胺的重要因素，丙烯酰胺在120度以上的高温下生成，140-180度产生的量最多。并且，越是炸得脆、烤得干的食物，丙烯酰胺的含量通常也越高，例如炸薯片的丙烯酰胺含量约为炸薯条的2倍，硬面包比软面包含量高。如何减少食物中丙烯酰胺的含量呢？Acrylaway®天冬酰胺酶已被证实可以有效降低多种食品（例如饼干、面包干和马铃薯休闲食品）中的丙烯酰胺含量。并且Acrylaway®天冬酰胺酶真正吸引人的地方在于，它不仅可以有效减少丙烯酰胺，而且不会影响最终产品的诱人的香味和外观。图片来源于网络长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。 </t>
+  </si>
+  <si>
+    <t>母亲节送什么?什么都别送!</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=2650315460&amp;idx=1&amp;sn=ad932a104cea97dd030f3ea14e4a4899&amp;chksm=87ba6d90b0cde48666b008dcedcff811ae3d335890adc254c9a7cffd8e77abd3f1d86e2e30f2#rd</t>
+  </si>
+  <si>
+    <t>世间动人的情感很多种，母爱是最值得被歌颂的。无论经过多少岁月的洗礼和流逝，依旧散发着最为温馨的爱意。上周向大家征集了关于“如何证明你是你妈亲生的”问题的答案。有人说自己发老妈在弹琴的微信视频在朋友圈中，遭到疯狂点赞，还问她是否打算弃商从艺了？有人说妈妈会给自己的每一条朋友圈都点赞。那些年亲妈点过的赞，可以绕地球两圈了。还有人说妈妈是自己人生的导师，未雨绸缪第一人，她还在襁褓时，就已经对她的人生规划了然于胸.其实，从你出生那天，你就成为了她生命的全部。她把你捧在手心，自始至终都对你疼爱有加。你的一声啼哭、一丝微笑都成为她无尽的牵挂和永恒的记忆。为了照顾刚出娘胎的你，她很少能安稳地睡上一觉。她每天照顾你的衣食住行，教你说话，教你走路。你的第一次爬行、站立、学步，甚至怎样拿筷子…都离不开她的付出。她总是把一切好吃的好玩的全部留给你。在你生病的时候，她总是那个留在病床前寸步不离照顾你的人。她是你人生节点的把关人，她提出的每一个建议都是希望你少走弯路。她竭尽所能，为你提供最舒适的生活的环境，为你扫清成功路上的所有障碍。你离家工作， 把你送走之后，你可知道多少个日日夜夜，她都牵挂着你，计算着你归家的日子。几十年的时光只是弹指一挥白驹过隙，她的鬓角开始有了白发。现在，你是否愿意牵着她的手？慢慢走，就像小时候她牵着你一样。即将到来的五月八日，因母亲节而显得格外温情。当然，母亲节的意义并不仅限于你亲手为她挑选的一件礼物，更重要的是回馈妈妈所有的爱意。今天是母亲节，帮妈妈解放双手吧！酶对现代家用及工业用洗涤剂的发展和提高起着极大的作用。家用洗涤剂领域是当今酶应用最广的领域。洗涤剂酶主要分为几大类：蛋白酶、脂肪酶、淀粉酶以及纤维素酶。每种酶都有各自的特性。历史上，蛋白酶是第一类应用于洗衣用洗涤剂的酶。它们除了可以提高衣服的洁净度外，对环保也有很大的意义。因为蛋白酶的应用可以缩短洗涤时间，降低洗涤温度并减少耗水量，从而降低能耗。现在，蛋白酶与脂肪酶和淀粉酶的协同效应可以提高家用洗涤剂在低温时的洗涤效能以及工业用洗涤剂在低ph下的洗涤效能。纤维素酶可以整体地保护织物纤维，它可使洗过的衣服保持新的外观并使旧织物恢复新貌。（图片来源于网络）长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。 有人说妈妈会给自己的每一条朋友圈都点赞。那些年亲妈点过的赞，可以绕地球两圈了。还有人说妈妈是自己人生的导师，未雨绸缪第一人，她还在襁褓时，就已经对她的人生规划了然于胸.其实，从你出生那天，你就成为了她生命的全部。她把你捧在手心，自始至终都对你疼爱有加。你的一声啼哭、一丝微笑都成为她无尽的牵挂和永恒的记忆。为了照顾刚出娘胎的你，她很少能安稳地睡上一觉。她每天照顾你的衣食住行，教你说话，教你走路。你的第一次爬行、站立、学步，甚至怎样拿筷子…都离不开她的付出。她总是把一切好吃的好玩的全部留给你。在你生病的时候，她总是那个留在病床前寸步不离照顾你的人。她是你人生节点的把关人，她提出的每一个建议都是希望你少走弯路。她竭尽所能，为你提供最舒适的生活的环境，为你扫清成功路上的所有障碍。你离家工作， 把你送走之后，你可知道多少个日日夜夜，她都牵挂着你，计算着你归家的日子。几十年的时光只是弹指一挥白驹过隙，她的鬓角开始有了白发。现在，你是否愿意牵着她的手？慢慢走，就像小时候她牵着你一样。即将到来的五月八日，因母亲节而显得格外温情。当然，母亲节的意义并不仅限于你亲手为她挑选的一件礼物，更重要的是回馈妈妈所有的爱意。今天是母亲节，帮妈妈解放双手吧！酶对现代家用及工业用洗涤剂的发展和提高起着极大的作用。家用洗涤剂领域是当今酶应用最广的领域。洗涤剂酶主要分为几大类：蛋白酶、脂肪酶、淀粉酶以及纤维素酶。每种酶都有各自的特性。历史上，蛋白酶是第一类应用于洗衣用洗涤剂的酶。它们除了可以提高衣服的洁净度外，对环保也有很大的意义。因为蛋白酶的应用可以缩短洗涤时间，降低洗涤温度并减少耗水量，从而降低能耗。现在，蛋白酶与脂肪酶和淀粉酶的协同效应可以提高家用洗涤剂在低温时的洗涤效能以及工业用洗涤剂在低ph下的洗涤效能。纤维素酶可以整体地保护织物纤维，它可使洗过的衣服保持新的外观并使旧织物恢复新貌。（图片来源于网络）长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。 </t>
+  </si>
+  <si>
+    <t>5月5日-7日|诺维信邀您光临上海环博会</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=2650315438&amp;idx=1&amp;sn=60295c89584aff5e996b8314ad024617&amp;chksm=87ba6dfab0cde4ecd42c89790bd5af0c208e19694a8bc9e398c4accdaa02017dae7279da5577#rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第十七届中国环博会即将在上海新国际博览中心精彩呈现。诺维信邀您光临本届环博会，了解如何通过微生物菌群优化您的污水厂运行。       展位信息：N2,2642参展时间：2016年5月5-7日展馆地址：上海新国际博览中心 （上海市浦东新区龙阳路2345号）生物增效技术生物增效技术通过添加针对性优势菌种，来提升固有微生物菌群对工艺波动的响应能力或对某些成分的降解能力，进而达到改善废水处理的目的。为何选择生物技术？生物技术相比传统的技术平台如化学品、设备或其他消耗品具有诸多优点。因对有机物降解效果显著，多年来一直被应用于废水处理系统中。通过生物增效可以更好地强化废水处理设施的核心工艺，使之更高效地发挥作用。虽然其他技术如化学品或消耗品能够提高出水质量，但此类技术通常成本高昂，而且很难操控。生物强化不仅处理效果明显，而且节省了在工厂扩建和购买设备上的资本投入。应用领域降解特定的化合物通过向现有微生物菌群中添加能够将特定的物质强效降解的微生物，降低废水出水中的目标化合物(COD/BOD和氨氮，其他包括酚类、烃类、表面活性剂、难降解COD、FOG)的水平。提高工厂稳定性废水处理系统往往会受到冲击且进水条件不太稳定。微生物菌群对任何变化都需要一定的时间来适应，突如其来的变化可致出水质量下降。生物增效则能提升微生物菌群对这些变化的抵抗能力。冲击恢复和系统启动当废水处理系统发生异常时，环境的突然变化会给微生物菌群带来冲击。通过添加优势菌种建立起微生物菌群，能够在较短的时间内使系统恢复。对于新的系统，添加优势菌种能够显著加快新系统的启动。环境耐受低温环境会对微生物菌群产生较大的影响。优势菌种中的耐低温菌在温度较低时仍然能够保持较高活性，保证污水处理效果。异味控制难闻的异味会给周边社区造成困扰，也会给污水处理厂内部工作人员的健康带来一定的危害。通过添加微生物来降解产生异味的化合物，可以减轻和防止异味产生。丝状菌控制废水处理系统中的丝状菌生长会造成沉降问题，导致出水质量低下。可以添加微生物来降解导致丝状菌大量繁殖的化合物，比如过量的油脂，使丝状菌得到控制。优点- 提高工厂效率- 改善出水质量- 提高应用性能降低运营成本- 降低化学品用量- 减少活性炭等消耗品的使用- 减少能源消耗- 提高达标率，减少排污费和罚款简化操作- 减少调整- 能更好地应对冲击和进水变化长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。                   </t>
+  </si>
+  <si>
+    <t>快乐动起来,诺维信志愿者"为爱而走"</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=2650315402&amp;idx=1&amp;sn=ee242ec919287af68aa29ba6032cb9df&amp;chksm=87ba6ddeb0cde4c8d8dc0e381a70d33b7601a4292c51794fcab7a79f91c8fe0aef00eaa4bda4#rd</t>
+  </si>
+  <si>
+    <t> 一次健康有爱的执着行走，一群相约奥森的同事朋友，一段帮助劣弱势儿童的爱心之旅，一路春暖花开的浪漫牵手。 2016年4月17日是全球第28个“世界血友病日”，在“相互支撑，共建家园”的主题下，民建北京市委、中国妇女发展基金会、中华少年儿童慈善救助基金会、中国血友之家和“有爱有未来”外企志愿行动等机构联合发起举办第四届“为爱而走”慈善健走活动。4月17日当天，70家知名企业和机构，近5,000名志愿者在北京奥林匹克森林公园集合，以健康行走的方式，为血友病患者及其家庭提供切实帮助，并号召更多社会力量关注和支持血友病患者群体，用关爱和温暖点亮他们对生活的信心和希望。血友病（hemophilia）是一组遗传性凝血功能障碍出血性疾病，包括血友病甲、血友病乙和血友病丙3种类型：这三种不同类型的血友病的共同特征是活性凝血活酶生成障碍，凝血时间延长，终身具有轻微创伤后出血倾向，重症患者没有明显外伤也可发生“自发性”出血。每年的4月17日为“世界血友病日”。为了纪念世界血友病联盟发起人─加拿大籍的法兰克·舒纳波先生（Mr. Frank Schnabel）对于血友病患的贡献，以及唤起大众对于血友病的正确认知，自1989年起，特别选中他的生日4月17日作为“世界血友病日”。血友病属于罕见病的一种，虽然可以通过药物控制病情，但由于药物的费用较高，且需要长期使用，致使许多患者难以负担。虽然血友病患者乐观、坚强，但他们也非常需要真诚的关注，需要热情的帮助。你是否愿意给予他们多点关心，多点支持？ 本届“为爱而走”活动，吸引了诺维信的员工及他们的家人和朋友。诺维信召集了近30人的“慈善健走团”，大家冒着大风，参与了3公里、5公里、10公里健走、义卖等活动。诺维信的“慈善健走团”除了有中青年员工，还有七、八十岁的老人和几岁的小朋友。这体现了“为爱而走”活动的广泛参与性，极强的影响力，并且在小朋友心中种下了参与爱心慈善活动的种子。每个人的善举，都是患者及其家属坚强乐观的理由和坚强的后盾，希望他们能够积极接受治疗，积极面对人生。 长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。</t>
+  </si>
+  <si>
+    <t>3月23日-25日|诺维信与您相约上海FIC</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=401964327&amp;idx=1&amp;sn=73b3e15f01d10b71aeb8fe6da8f431f0&amp;chksm=0db78a733ac00365a5048265f7bf834d2f0c6f9226990b0a1ecb2acc054328576dec862e4792#rd</t>
+  </si>
+  <si>
+    <t>诺维信邀您参加2016年上海FIC展览会 展位信息：51A20/51B21参展时间：2015年3月23日-25日展馆地址：上海市崧泽大道333号, 国家会展中心酶是烘焙行业不可或缺的加工助剂，酶制剂可以提高烘焙食品在货架期内的口感和新鲜度，增大其体积，增进表皮颜色，改善内部结构和颜色。此外，酶制剂还可以保持冷冻面团的性能，提高面制品的品质。作为食品用酶的领导者，诺维信致力于产品的质量安全。所有工序均遵从地区和国际食品立法，并追求国际食品安全和质量标准，为您提供安全的产品、生产线和原材料。健康与饮食息息相关。如何在吃的过程中，美味与营养共享？ 诺维信酶制剂解决方案助您一臂之力。新鲜的蛋糕好的蛋糕总是给人以新鲜的感觉。所以消费者在想要畅快地一饱口福时总是很看重新鲜度。问题在于，所谓的新鲜蛋糕究竟应该是什么样的呢？为此，诺维信在全球蛋糕消费量最大的两个国家向 400多名消费者做了调查：消费者提到最多的三个形容词分别是“柔软”、“湿润感”和“美味”。更重要的是，这些消费者希望小包装重油蛋糕能够在买回家后至少在 1、2 周时间里依然保持新鲜。OptiCake®是一种成熟且卓越的酶技术，让小包装蛋糕经过数月的存放后在外观、口感和触感上都得到改善。OptiCake® Excel 和OptiCake® Lift 由身为酶专家的诺维信负责开发，帮助蛋糕生产商满足消费者需求，并制作出始终柔软诱人、让人垂涎三尺的美味蛋糕，即便是在长时间保存后依然如此。低乳糖和无乳糖乳制品乳制品是蛋白质、脂肪、维生素以及包括钙在内的矿物质的重要来源。乳糖是存在于乳制品中的天然的糖，在人体中需要乳糖酶来消化。大多数婴儿体内天生能够生成乳糖酶，但随着年龄的增长，这种能力会趋于下降。乳糖消化力由基因决定，在世界各个地区间也有很大不同。全球约70%的人口均出现一定程度的乳糖不耐受。目前，低乳糖、无乳糖乳制品的全球市场在不断增长。越来越多的消费者选择低乳糖和无乳糖乳制品，不仅出于乳糖不耐受的原因，也出于对健康的考虑。使用诺维信Lactozym® Pure对牛奶和其他奶制品进行处理，可彻底分解乳糖，这一过程可将乳糖降解为葡萄糖、半乳糖和有限数量的低聚半乳糖，使乳制品更易消化。Lactozym® Pure适用于各种乳制品，包括鲜奶、UHT乳品（超高温灭菌奶）、乳饮料、奶油、冰淇淋、酸奶、天然甜味剂（还原糖）和炼乳。燕麦燕麦是世界公认的十大健康食品之一，能明显降低血清胆固醇、甘油三酯和血糖。燕麦中水溶性膳食纤维含量高达8-10%，分别是小麦和玉米的4.7倍和7.7倍，并且，燕麦含有人体所需要的8种氨基酸，其中赖氨酸含量0.68g/100g，是大米、面粉的两倍以上。燕麦营养丰富，已经成为二十一世纪公认的健康食品。多种含有燕麦的产品，如，燕麦粥、燕麦奶、燕麦饮料、燕麦酸奶、燕麦零食已经成为了热爱健康人士的新宠。但是由于其糊化粘度大，给工业生产加工带来很大困难。同时由于燕麦中含有大量难于消化的支链淀粉，人们需要食用大量的燕麦后才能达到其应有的效果。在生产过程中用酶制剂处理燕麦可以帮助消化燕麦中的淀粉和粗蛋白，这样一来，营养被分解后变得更加容易吸收和吞咽，可以全面被人体消化利用。在这个过程中，释放了糊精的糖，提高了产品的适口性，改善了燕麦的口味、口感和甜度。诺维信独有的产品BAN 480L 和 Amylase AG 300L 非常适合于生产品质优良、口味上佳的健康型燕麦产品，例如燕麦奶或饮料。酵母提取物许多产品都用酵母提取物做调味剂，如汤类、肉汁类、休闲食品和肉类产品。这是因为酵母提取物中含有丰富的氨基酸、核苷酸、多肽、维生素和风味物质。传统酵母提取物的生产取决于酵母中含有天然存在的酶系，而在提取工艺中使用外源酶更具优势。为此，使用诺维信的蛋白酶生产酵母提取物，可以提高产量，缩短生产时间，从而提高了生产能力。并且，它与风味酶Flavourzyme混合使用可以提升口感。长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。健康与饮食息息相关。如何在吃的过程中，美味与营养共享？ 诺维信酶制剂解决方案助您一臂之力。新鲜的蛋糕好的蛋糕总是给人以新鲜的感觉。所以消费者在想要畅快地一饱口福时总是很看重新鲜度。问题在于，所谓的新鲜蛋糕究竟应该是什么样的呢？为此，诺维信在全球蛋糕消费量最大的两个国家向 400多名消费者做了调查：消费者提到最多的三个形容词分别是“柔软”、“湿润感”和“美味”。更重要的是，这些消费者希望小包装重油蛋糕能够在买回家后至少在 1、2 周时间里依然保持新鲜。OptiCake®是一种成熟且卓越的酶技术，让小包装蛋糕经过数月的存放后在外观、口感和触感上都得到改善。OptiCake® Excel 和OptiCake® Lift 由身为酶专家的诺维信负责开发，帮助蛋糕生产商满足消费者需求，并制作出始终柔软诱人、让人垂涎三尺的美味蛋糕，即便是在长时间保存后依然如此。低乳糖和无乳糖乳制品乳制品是蛋白质、脂肪、维生素以及包括钙在内的矿物质的重要来源。乳糖是存在于乳制品中的天然的糖，在人体中需要乳糖酶来消化。大多数婴儿体内天生能够生成乳糖酶，但随着年龄的增长，这种能力会趋于下降。乳糖消化力由基因决定，在世界各个地区间也有很大不同。全球约70%的人口均出现一定程度的乳糖不耐受。目前，低乳糖、无乳糖乳制品的全球市场在不断增长。越来越多的消费者选择低乳糖和无乳糖乳制品，不仅出于乳糖不耐受的原因，也出于对健康的考虑。使用诺维信Lactozym® Pure对牛奶和其他奶制品进行处理，可彻底分解乳糖，这一过程可将乳糖降解为葡萄糖、半乳糖和有限数量的低聚半乳糖，使乳制品更易消化。Lactozym® Pure适用于各种乳制品，包括鲜奶、UHT乳品（超高温灭菌奶）、乳饮料、奶油、冰淇淋、酸奶、天然甜味剂（还原糖）和炼乳。燕麦燕麦是世界公认的十大健康食品之一，能明显降低血清胆固醇、甘油三酯和血糖。燕麦中水溶性膳食纤维含量高达8-10%，分别是小麦和玉米的4.7倍和7.7倍，并且，燕麦含有人体所需要的8种氨基酸，其中赖氨酸含量0.68g/100g，是大米、面粉的两倍以上。燕麦营养丰富，已经成为二十一世纪公认的健康食品。多种含有燕麦的产品，如，燕麦粥、燕麦奶、燕麦饮料、燕麦酸奶、燕麦零食已经成为了热爱健康人士的新宠。但是由于其糊化粘度大，给工业生产加工带来很大困难。同时由于燕麦中含有大量难于消化的支链淀粉，人们需要食用大量的燕麦后才能达到其应有的效果。在生产过程中用酶制剂处理燕麦可以帮助消化燕麦中的淀粉和粗蛋白，这样一来，营养被分解后变得更加容易吸收和吞咽，可以全面被人体消化利用。在这个过程中，释放了糊精的糖，提高了产品的适口性，改善了燕麦的口味、口感和甜度。诺维信独有的产品BAN 480L 和 Amylase AG 300L 非常适合于生产品质优良、口味上佳的健康型燕麦产品，例如燕麦奶或饮料。酵母提取物许多产品都用酵母提取物做调味剂，如汤类、肉汁类、休闲食品和肉类产品。这是因为酵母提取物中含有丰富的氨基酸、核苷酸、多肽、维生素和风味物质。传统酵母提取物的生产取决于酵母中含有天然存在的酶系，而在提取工艺中使用外源酶更具优势。为此，使用诺维信的蛋白酶生产酵母提取物，可以提高产量，缩短生产时间，从而提高了生产能力。并且，它与风味酶Flavourzyme混合使用可以提升口感。长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。</t>
+  </si>
+  <si>
+    <t>植树节|森林是人类的“绿色穹顶”</t>
+  </si>
+  <si>
+    <t>阳春三月，正是草长莺飞，生机盎然的大好时光。3.12植树节如约而至，通过植树造林促进绿化、保护环境的初衷，又一次进入人们的视野。繁忙的工作可能令我们无法抽身为植树出一分力，但是我们可以借机了解一下人类的“绿色穹顶”—森林。在远古时代，人们会举行一些纪念活动来表达自己对森林和树木朴素的敬畏之情。美洲印第安视森林为图腾：“树木撑起了天空，如果森林消失，世界之顶的天空就会塌落，自然就会和人类一起死亡。”全世界陆地约有30%的面积由森林覆盖，近16亿人口依其维生。森林与人的关系密不可分。除了供给生活所需的木材资源，森林提供的生态功能还包括净化空气与水源，以及维持气候稳定。同时，森林也是陆地上生物多样性最丰富的区域，是亿万生物安身立命的居所。在我们生活的世界里，每四个人中就有一个人是依赖森林为生; 全球共有2.4 亿人口生活在森林区; 在发展中国家有近 3 千万个工作机会是与林木工作相关的。约有 50% 的动植物是生存在热带雨林中:  在热带雨林中每 4 平方英里都可以发现约1500 种不同种类的花, 750 种不同种类的树, 400 种不同种类的鸟以及150 种不同种类的蝴蝶。然而，由联合国粮农组织（FAO）发起的2010年全球森林资源评估（GlobalForest Resources Assessment）报告指出，全世界每年损失约520万公顷森林，并且森林品质不断下降，生态环境逐渐恶化。其背后的原因错综复杂，除了全球林业产品需求日益增加，世界各地亦大规模将林地转作开发用途，再加上其他不当管理进一步加速了森林的退化。非法砍伐森林是导致森林锐减的一个十分重要的因素。据联合国粮农组织2002年报告，全球4大木村生产国（俄罗斯、巴西、印尼和民主刚果）所生产的木材有相当比重来自非法木材。在过去的五十年间, 亚马逊热带雨林的面积减少了17%; 在未来的 25 年, 因為砍伐森林将会有 28,000 种不同种类的动植物面临灭绝的命运。并且，有调研指出到 2020 年棕榈油的需求量将呈现倍数级成长,人们对植物油的需求量大增,因此,许多东南亚的热带雨林被开发为农场用。为提醒世人森林的重要性，欧洲农业联盟（European Confederationof Agriculture）在1971年提出世界森林日（World Forest Day），并得到联合国粮农组织支持以及各国响应。除此之外，2007年至2012年国际森林研究中心（Centerfor International Forestry Research），亦配合每年12月份的《联合国气候变迁纲要公约》会议，选择一天作為森林日（Forest Day），讨论森林与气候变迁相关议题。考虑到没有一个全球公认的日子，联合国大会于2013年正式宣布3月21日為国际森林日（InternationalDay of Forests），并由联合国森林论坛（United Nations Forum on Forests）和粮农组织合作办理，此后每年皆举办庆祝活动，更邀请所有会员国在森林日前后，在自己国内推动相关行动，鼓励民众实地亲近森林。善待森林，无异于善待人类自己。相信没有人愿意看到“森→林→木→十”的结局。为了人类与森林长久共存，我们的当务之急：“维护和增加森林覆盖面积；恢复并提高森林功能；加强种植业以弥补对森林的开发使用；重视森林土著人和森林工人的权利等。”森林的维护离不开土壤的维护 ,肥沃的土壤可以让让树木茁壮成长。健康的土壤能够给树木提供持续不断的肥力及水气资源，为树木提供舒适的根部优生环境。在一定程度上，土壤的健康与否，直接影响着树木的生长。生物肥料和生物农药作为化学肥料和化学农药的替代品，能够克服化学肥料和化学农药对生态环境的污染。生物肥料不仅含有树木所需的营养元素，又含有微生物的制品，是生物、有机、无机的结合体，为树木提供生长发育所需的各类营养元素。采用生物肥料可以使地力得到迅速恢复：土壤微生物群量猛增，高达每克土含10亿个以上；团里结构增强，有机质含量增加，通气性、保水性、保肥性得到根本改善。生物农药是来自天然的化学物质或生命体，具有杀菌农药和杀虫农药的作用。相比于传统农药所具有的缺点，生物农药对生态环境影响小,极易被日光、植物或各种土壤微生物分解，而且可利用农副产品生产加工制得，生产成本低廉。所以说，生物农药不但保护了环境，也保护了生物圈。生物农业开启农业升级的未来作为引领生物创新的世界先导，诺维信一直在探索利用微生物和酶提高农业的可持续性、保护环境、增产增收的技术。2013年12月，诺维信公司和孟山都建立了生物农业联盟 
+(TheBioAgAlliance)，促进农业领域环保型生物解决方案的研发和商业化，推动全球生态农业完成转型。生物农业联盟(The 
+BioAg Alliance) 将依靠两家公司在各自农业生物制品方面投入的员工、技术和商业资产，研究可推动农业转型的新型微生物解决方案。图片来自于网络参考资料： http://e-info.org.tw/node/98156 长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妇女节是不是该对自己好一点呢？</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=401786595&amp;idx=1&amp;sn=fab30d1c6cf11e784b1e07596a1d89c1&amp;chksm=0db031b73ac7b8a1f55dae8d3740ae97dd257e4e13fa3c65668b475810e1c7c6a5d65521665b#rd</t>
+  </si>
+  <si>
+    <t>三八妇女节又称国际劳动妇女节。在国际上，妇女节的全称是“联合国妇女权益和国际和平日”,是世界各国妇女争取和平、平等、发展的节日。这一天，妇女们作出的成就得到肯定，不论她们的国籍、民族、语言、文化、经济状况和政治立场如何。图 / plusquotes.com国际妇女节起源于20世纪初北美和欧洲的工人运动。1909年3月8日，美国伊利诺斯州芝加哥市的女工和全国纺织、服装业的工人举行规模巨大的罢工和示威游行，要求增加工资、实行8小时工作制和获得选举权。这是历史上劳动妇女第一次有组织的群众斗争，充分显示了劳动妇女的力量。斗争得到全国乃至世界其他国家妇女群众的广泛同情和热烈响应，最后取得了胜利。图 / www.onegirl.org.au从那以后，国际妇女节成为一个全球性的妇女节日，对发达国家及发展中国家的妇女来说都具有新的意义。日益发展壮大的国际妇女运动，通过联合国四次妇女问题全球会议得以加强。在其推动下，纪念活动已成为一个号角，号召协力争取妇女权利和妇女对政治经济事务的参与。图 / www.un.org其实，在世界各地，除了“三八妇女节”以外还有许多专属女性的节日，而且几乎是每个月都有：掌权日　每年的1月4日，是瑞士某些地区的“妇女掌权日”，在为期4天的节日中，家里大小事务全由妇女说了算，男人统统“闭幕”。图 / www.projecteve.com女市长节　西班牙的“女市长节”，也在2月份。当日，由女性主持市政公务，发号施令，男人如违抗，就会被公众群起攻之。图 / www.syracuse.com妈妈节　4月，在尼泊尔有一个历时3天的妇女节，来自各地的妇女，披着红色“纱笼”，成群结队地涌向首都加德满都的帕苏帕蒂庙。她们在吃饱了由丈夫烹煮的美食后，便在神像前大唱赞歌。在印度，这个月有一个“妈妈节”。这一天，已为人母者穿上彩色缤纷的“纱笼”，带上各种首饰，显得风姿绰约。这日也是一年中她们最受尊重的一天。图 / tech.ifeng.com母亲节　5月的第二个星期日，是美国、加拿大和欧洲一些国家的母亲节，其主要内容是尊敬母亲。这一天，美国的家庭成员要按习惯佩戴石竹花，做一些使母亲高兴的事。5月29日，是中非的“妈妈节”，母亲要带着孩子参加游行。5月的第三个星期日，是西班牙的“百女节”，订了婚还未过门的少女们持花登高，互相祝福。图 / zeenews.india.com狂欢节　10月10日至15日，是德国莱茵地区的“妇女狂欢节”。在此期间，妇女“大自由”。男人们不得查探妇女活动的内容，违者会被抓问罪。10月17日，是非洲马拉维共和国的妇女节，这一天有全国性庆典，男人在当天要对妻子呵护有加，侍侯周到。图 / tech.ifeng.com休息日　每年的12月31日到第二天中午，是希腊的“主妇休息日”。这天，妇女在家里什么也不干，一切家务全由男人承担。图 / www.themodernman.com妇女节如何犒劳自己？虽然理论上所有成年女性都可以被称作是“妇女”，但很多人都不想给自己认领这个称谓。虽然每天都被繁忙的工作生活折磨得面容憔悴，但也正因如此才要找机会好好犒劳自己一下，就算溺爱也一点都不过分。在这个特殊的日子里你可以选择旅行来舒缓平日压力，图 / www.huffingtonpost.co.uk或者逛街，去享受购物乐趣，图 / madelastonlineshopping.wordpress.com又或者好好休息一下给自己放个假，图 / www.timeslive.co.za‍但千万别忘了学会关爱自己，解放自己的双手。图 / cosmedclinic.com酶对现代家用及工业用洗涤剂的发展和提高起着极大的作用。家用洗涤剂领域是当今酶应用最广的领域。洗涤剂酶主要分为几大类：蛋白酶、脂肪酶、淀粉酶以及纤维素酶。每种酶都有各自的特性。历史上，蛋白酶是第一类应用于洗衣用洗涤剂的酶。它们除了可以提高衣服的洁净度外，对环保也有很大的意义。因为蛋白酶的应用可以缩短洗涤时间，降低洗涤温度并减少耗水量，从而降低能耗。现在，蛋白酶与脂肪酶和淀粉酶的协同效应可以提高家用洗涤剂在低温时的洗涤效能以及工业用洗涤剂在低ph下的洗涤效能。纤维素酶可以整体地保护织物纤维，它可使洗过的衣服保持新的外观并使旧织物恢复新貌。参考资料：各国女性节日 不只有“三八”http://sz.nxnews.net/nxrb/html/2016-03/08/content_701610.htm长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。</t>
+  </si>
+  <si>
+    <t>10月28日|诺维信与您相约上海水处理化学品展的专题报告会</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=400141487&amp;idx=2&amp;sn=214005ea41db9203fe91daff230b2c8a&amp;chksm=0d9b5bfb3aecd2ed983e2c6b141cc847f892fe7a42909a11f2da5763e26e4e4e0e9f9199d15e#rd</t>
+  </si>
+  <si>
+    <t>上海水处理化学品展诺维信技术交流专题报告会地点：上海世博展览馆 2号馆,会议室二时间：10月28日演讲人：杨琤10:30-11:00诺维信（中国）投资有限公司介绍及微生物在环保行业的应用11:00-11:30生物技术如何实现化学品供应商提供水处理运行的整体解决方案11:30-12:00交流与讨论Q&amp;A13:30-14:00诺维信（中国）投资有限公司介绍及微生物在环保行业的应用14:00-14:30生物技术在环境治理中的前沿应用14:30-15:00诺维信废水处理应用案例介绍长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=401875590&amp;idx=1&amp;sn=a63b095bd15a6163f821895b67cce0f2&amp;chksm=0db6d5d23ac15cc4643c1767db0253963e9c119fff2168cddb5b32f8d5f082a685af7569b4cb#rd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节,别忘了“常回家看看”</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=400072205&amp;idx=1&amp;sn=53ec7f7a9d7b3b63cf20148255420e7a&amp;chksm=0d9a69593aede04ff484d47780e3ff3578d384568fde7211d9c747e44f1fd24765f8b39eac01#rd</t>
+  </si>
+  <si>
+    <t>点击上方蓝色字体关注诺维信生物科技博览~从你出生那天，你就成为了他们生命的全部。他们把你捧在手心，自始至终都对你疼爱有加。你的一声啼哭、一丝微笑都成为他们无尽的牵挂和永恒的记忆。为了照顾刚出娘胎的你，他们很少能安稳地睡上一觉。他们每天照顾你的衣食住行，教你说话，教你走路。你的第一次爬行、站立、学步，甚至怎样拿筷子…都离不开他们的付出。他们总是把一切好吃的好玩的全部留给你。在你生病的时候，他们总是那个留在病床前寸步不离照顾你的人。他们是你人生节点的把关人，他们提出的每一个建议都是希望你少走弯路。他们竭尽所能，为你提供最舒适的生活的环境，为你扫清成功路上的所有障碍。你离家工作， 把你送走之后，你可知道多少个日日夜夜，他们都牵挂着你，计算着你归家的日子。几十年的时光只是弹指一挥白驹过隙，他们的鬓角开始有了白发。现在，你是否愿意牵着他们的手？慢慢走，就像小时候他们牵着你一样。今天是重阳节，回家陪父母吃个饭或者打个电话吧！随着年龄的增长，老年人身体的一些生理机能就在减退，因此更容易受到一些疾病的影响。所以对于老年人来说，在日常的健康饮食方面，就应该更加注重。那么，老人怎样做到健康饮食呢？以下这几点，一定要提醒咱爸妈：1、以豆制品取代部分动物蛋白质。老年人必须限制肉类的摄取量，一部分的蛋白质来源应该以豆类及豆制品 ( 如豆腐、豆浆)取代。　　2、少量多餐，以点心补充营养。为了让老年人每天都能摄取足够的热量及营养，不妨让老年人一天分5～6 餐进食，在3次正餐之间另外准备一些简便的点心，如低脂牛奶泡饼干(或营养麦片) 、低脂牛奶燕麦片，老年或是豆花、豆浆加蛋，也可以将切成小块的水果或水果泥拌酸奶食用。3、限制油脂摄取量。老年人摄取油脂要以植物油为主，避免肥肉、动物油脂猪油、牛油)，而且也要少用油炸的方式烹调食物。另外，甜点糕饼类的油脂含量也很高，老年人应尽量少吃这一类的高脂肪零食。较好多元不饱和脂肪(如玉米油、葵花籽油)和单元不饱和脂肪(如橄榄油、花生油)轮换着吃，这样比较能均衡摄取各种脂肪酸。4. 多食用燕麦。燕麦是世界公认的十大健康食品之一，能明显降低血清胆固醇、甘油三酯和血糖。燕麦中水溶性膳食纤维含量高达8-10%，分别是小麦和玉米的4.7倍和7.7倍，并且，燕麦含有人体所需要的8种氨基酸，其中赖氨酸含量0.68g/100g，是大米、面粉的两倍以上。但是由于燕麦糊化粘度大，给工业生产加工带来很大困难。同时由于燕麦中含有大量难于消化的支链淀粉，人们需要食用大量的燕麦后才能达到其应有的效果。在生产过程中用酶制剂处理燕麦可以帮助消化燕麦中的淀粉和粗蛋白，这样一来，营养被分解后变得更加容易吸收和吞咽，可以全面被人体消化利用。在这个过程中，释放了糊精的糖，提高了产品的适口性，改善了燕麦的口味、口感和甜度。（图片来源于网络）长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。</t>
+  </si>
+  <si>
+    <t>吃货福利 | 哥本哈根美食节</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=206868017&amp;idx=1&amp;sn=70b3c5f2c42b7c6d9b39f3b6c811a2f6&amp;chksm=161679652161f07352a5b9f7e4419b2738a0420ceea3ecec75fe597f2783e2118093ca96315d#rd</t>
+  </si>
+  <si>
+    <t>点击上方蓝色字体关注诺维信生物科技博览~转载自：丹麦投资促进局官方微信ID：investindk这一期的推送一定会让吃货们感到无比幸福！今夏的8月21日到8月30日，丹麦举办了哥本哈根美食节。首先，让我们静静地看一组当地吃货们上传的美图。   小编已经忍不住啦！长达十天的美食节有各种活动，不同的特色一定能满足你各种兴趣，丰富多彩眼花缭乱的主题，总有一款适合你！接下来，小编带你一起回顾最有特色的几个活动。艺术爱好者| 
+在艺术博览会享用美食作为CHART艺术博览会的一部分，夏洛特堡宮的庭院被打造成了美食大本营，当地民众可以在建筑师们设计的展览馆里吃吃喝喝。吃货们品尝到了来自Condesa Bar 
+&amp; Spiseri, Restaurant Barbie, Sticks &amp; Sushi和Union 
+Kitchen等餐厅的美食，还有来自L’Esprit du Vin和Mastro Pasta的葡萄酒和香槟。在周末，这里还有两场晚间音乐会，可以自由地畅谈艺术、欣赏各种艺术表演，真的很适合文艺爱好者呢。时间: 8月21日 13.00 - 
+03.008月22日 11.00 - 01.00地点：Nyhavn 2, 1051 København历史爱好者| 
+体验丹麦和瑞典的爱恨情仇史这是一个历时2小时的户外城市行走体验活动，从Christianshavn 
+Færgecafé启程，这期间你将体验到丹麦和瑞典1000多年的“相爱相杀”史，最后回到Christianshavn 
+Færgecafé体验一顿美味的小龙虾大餐。这趟历史之旅可是由一位丹麦的历史学家所带领的哦！最近小龙虾在丹麦可是很火呢，这家的特别之处在于他们小龙虾的用料带有瑞典风味，除此之外你还能品尝到餐厅经典的咖喱鲱鱼。热爱历史的吃货们一定收获颇丰！时间：8月21至22日 
+18.008月27日至29日 18.00（错过的亲们还可以赶上哦！）地点: Strandgade 
+50, 1401 Købanhavn K意大利爱好者| 
+世界意大利烩饭大赛这是第二届世界意大利烩饭大赛，GRØD和TorvehallerneKBH希望通过这次大赛寻找世界上最会做意大利烩饭的人。这次比赛也是空前的激烈，因为不仅有之前的获奖选手“守擂”，更有来自世界各地的厨师前来挑战！据说这是此次美食节人气最高的活动之一，小编真的很想尝尝最后冠军的作品呢！时间 : 8月23日13:00 
+- 16:00地点：Frederiksborggade 
+21, 1360 København流水宴爱好者| 
+与1000位食客一起体验丰收季原来高冷的北欧人民也这么爱热闹呢！小编觉得1000人的户外“长桌晚餐”瞬间有了豪华型“街边大排档”即视感，但是看看菜单，可比大排档要健康诱人多了！为庆祝丰收，5家餐馆将为腓特烈堡丰收筵提供由最新鲜的本地食材做成的美食。无论是邻里好友、还是城市旅游者，都可以在这里相聚。一切都是这么美好、开心又温暖！本次流水宴的另一特点就是，将汇集当地的厨师、店主、菜园主，让一切相关的人一起去完成这顿筵席。它的初衷就是让人们一起用好食材准备美食，在这个过程中打破隔阂，关系变得更融洽紧密。好消息是，这次腓特烈堡丰收筵就在今晚哦！在丹麦的朋友是不是迫不及待想去看一下了？时间：8月28日 
+17：00地点：Frederiksberg Allé声明：本文转载自丹麦投资促进局官方微信（微信号investindk)。丹麦投资促进局隶属丹麦外交部，属于丹麦政府为促进外商投资而设立的官方机构。扫一扫添加关注：——丹麦投资促进局——长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。——诺维信生物科技博览————丹麦投资促进局——长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。——诺维信生物科技博览——</t>
+  </si>
+  <si>
+    <t>媒体开放日 | 畅叙生物创新打造美好生活</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=206776986&amp;idx=1&amp;sn=27e1493acbf7773b9567f14663a26c89&amp;chksm=1611ddce216654d838782e22267ccccbe37b17c11ac35ef679b5abf6a4c4bcd501a2f7aff588#rd</t>
+  </si>
+  <si>
+    <t>点击上方蓝色字体关注诺维信生物科技博览~8月12日，诺维信媒体沟通会在诺维信（中国）北京总部举行，13位食品行业、健康和大众媒体人出席了此次活动，体验诺维信先进的生物技术为啤酒饮料及烘焙营养行业带来的改变，共同分享诺维信生物解决方案为消费者日常生活带来的便利。沟通会上，诺维信谷物加工业务总监崔剑峰表示：“可持续发展已经成为诺维信人的共识，是诺维信的使命所在。诺维信的生物创新技术已经被应用于食品与饮料、家居护理、油脂酒精等70多个领域，涉及消费者衣食住行的方方面面。面对日益增长的人口和有限的资源，我们呼吁大家协力实现对个人健康、对环境友好，对未来可持续发展的生活方式。我们应该追求全面合理的发展，即经济发展与环境保护的平衡。”公司饮料行业市场经理倪然介绍：
+“诺维信创新的酶制剂技术已成功应用于红酒、啤酒等多种酒精饮料领域，与近乎所有全球领先的啤酒集团均有合作。其中，酶在生产过程中为下游生产商提供口感一致、提高酿造原料的利用率等效果得到了客户的高度认可。最近，中国团队又与一家国际知名啤酒品牌进行创新探索，用酶法成功提高了发酵度，协助厂商开发出以啤酒为基酒的莫吉托，得到的市场反馈超出预期。为啤酒行业客户占据这一最新流行的预调鸡尾酒市场提供了不可忽视的生物解决方案。 参加当天活动的记者们也兴致勃勃地品尝了这款面对家庭或餐饮酒吧的新产品，对其口感，生产工艺赞叹连连，对这款产品的未来市场前景寄予良好预期。在食品行业的环节，诺维信食品行业技术经理徐清老师首先给大家普及了生物工程对食品的贡献。在烘焙领域，诺维信的生物酶解决方案很好地解决了包装面包易干硬变质的难题，确保面包在贮藏期间保持最佳湿润度和松软度，同时减少碎屑，全面提升包装面包的品质，降低生产能效。与传统面包加工工艺上使用的乳化剂、改良剂等化学品相比，诺维信的生物制剂在保证消费者健康、推动环境可持续发展、提升生产效能等方面都是不二之选。为了加深媒体人的感受，徐老师还带大家参观走访了诺维信烘焙研发实验室，随即取出使用生物酶解决方案的面包供大家与普通面包进行实际对比。大家通过触摸、按压、折叠两款面包，明显感受到添加了酶制剂的面包更新鲜、柔软，且极少碎屑。“添加了酶制剂的面包的确非常柔软细腻，原来生物技术在日常的食物中有这么重要的作用，希望有更多这样安全健康的生物技术运用到食品中。＂ 食品工业科技报编辑感慨道。这场媒体沟通会在听、观、触、感、谈的积极互动中结束了，媒体人不仅获领略了生物技术的魅力，也进一步消除了对于酶之使用的惯性安全疑虑，正确认识了酶制剂解决方案。正如诺维信谷物工业总监崔剑峰然谈到的，酶是自然界生物机体中的蛋白质，诺维信正是通过发现和优化自然界中的酶，将这一自然、清洁的技术应用于工业领域，酶制剂技术恰是以健康的方式代替有害的食品添加剂，助力生产企业减少原材料使用、能源消耗和废弃物排放。让我们携手一起开启酶这一自然之神力，打造更美好、健康的生活。长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务,领略生物技术的魅力，更多礼品等待您。</t>
+  </si>
+  <si>
+    <t>诺维信一日斩获两项创新殊荣：生物技术推进可持续发展</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=206606084&amp;idx=1&amp;sn=0d817888d2390a9d83ec57af10b639ce&amp;chksm=161278502165f14684415c538fb0e20c61df3ef332dcd3fed3f83b799803c0a3849dd33b7cae#rd</t>
+  </si>
+  <si>
+    <t>点击上方蓝色字体关注诺维信生物科技博览~【2015年7月22日，中国北京】全球生物解决方案领先者诺维信公司在今天举行的第四届中国财经峰会以及2015关注气候中国峰会上分别荣获 “最佳企业创新奖” 和 “中国绿色技术创新成果” 两大殊荣。 作为引领生物创新的世界先导，诺维信始终围绕可持续发展议题，不断推出改变生活的创新产品和解决方案，用生物技术为中国及世界的可持续发展做出非凡贡献。权威评定，成就多项殊荣中国财经峰会是经济领域最具影响力的思想盛会之一，诺维信经众多权威专家评定，最终凭借卓越的创新能力，脱颖而出摘得“最佳企业创新” 桂冠。该项殊荣是对诺维信始终秉承经营业绩、环境表现和社会责任并举的 ‘三重底线’ 的最佳表彰。中国财经峰会组委会表示：“ 诺维信坚持生物创新，不断提供可持续发展的解决方案，帮助客户使用更少原料、生产更多产品，减少对世界资源的消耗，是经济新常态下企业创新的典范。”同日，在京举行的另一以“行动的力量” 为主题的2015关注气候中国峰会，旨在彰显中国企业在绿色低碳发展领域的努力及成效。力求通过国际对话、专家研判以及思想碰撞等多角度、全方位展现中国企业在关注气候、促进生态文明、实现可持续发展方面的扎实行动和成功经验，向世界传递来自中国典范企业、区域的声音。诺维信同时荣登“中国绿色技术创新成果” 榜单，充分证明其绿色创新技术为中国行业和社会带来突出影响。诺维信亚太区总裁戴彤于当日分别出席两项颁奖活动并表示：今天问鼎双料嘉奖，反映了中国公众对诺维信公司的高度赞誉和认可，我们感到十分荣幸和欣慰。一直以来，创新就是诺维信的企业基因，以生物创新带动绿色可持续发展已成为诺维信人的共识，为我们使命所在。在诺维信的不断努力下，仅二代纤维素燃料乙醇一个领域，每年就可在生产过程中实现碳减排近3万吨； 2014年，诺维信生物技术的各项应用共为全球工业生产减少了约6000万吨二氧化碳排放，相当于2500万辆小汽车的年排放量。未来，诺维信将继续积极倡导并有效推动生态工业、农业和循环经济；更加植根中国发展，成为中国可持续发展进程中最值得信赖的重要战略合作伙伴。”持续创新，推动可持续发展诺维信强调经济、社会、环境在未来可持续业务增长中创造价值和贡献。诺维信的产品生命周期评估显示，酶的应用可显著节约原材料、化学品、能耗并提高质量。诺维信始终坚持创新，不断在洗涤、食品饮料、生物燃料、农业及饲料、微生物及生物制药等多个领域实现技术突破，成功运用生物科技实现降低洗衣温度、提升生产能效、提高农业产量和减少化学品添加，推进可持续发展的健康生活方式。近日，诺维信联手立白在中国发布国内首款攻克生物酶在洗衣液中应用难题的新品——永维酶洗衣液，助力合作伙伴以更绿色的产品开拓中高端洗衣液市场。面对人口不断增长致使粮食与食品需求激增的现状，诺维信积极研发并与合作伙伴达成农业联盟，用生物技术克服现行化学肥料和化学农药对生态环境的污染，同时降低成本、改善农作物品质等使种植业步入良态循环，长效增产。今天人们正孜孜不倦地寻求可再生能源的替代能源，由诺维信最新推出的Eversa®，是市场上第一个利用废油来生产生物柴油的酶制剂解决方案。与此同时，诺维信的Cellic® 作为纤维素乙醇产生过程中必不可少的催化剂，它的问世让农业废弃物从环境、大气污染源之一，变成输送未来清洁能源的原料。到2020年，诺维信全球还计划推出10项改变生活的革命性创新产品，实现二氧化碳减排1亿吨的重大目标。诺维信的愿景就是在更繁荣的经济，更清洁的能源和更美好的生活之间实现和谐与统一。长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。</t>
+  </si>
+  <si>
+    <t>世界人口日|如何供养全球70亿人口？</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=206505895&amp;idx=1&amp;sn=6b91107858d0d433294b344b3988d79c&amp;chksm=160df0f3217a79e594e538c292c1f86679f5ea5a2cdd9d51cdc142fa52f7903e793443b21deb#rd</t>
+  </si>
+  <si>
+    <t>点击上方蓝色字体关注诺维信生物科技博览~1987年7月11日，前南斯拉夫的一个婴儿降生，被联合国象征性地认定为是地球上第50亿个人，并就此宣布地球人口突破50亿大关。于是，联合国人口活动基金会(UNFPA)倡议将这一天定为"世界50亿人口日"。图 / www.joannalynnphoto.com1990年，联合国决定将每年的七月十一日定为“世界人口日”，以唤起人们对人口问题的关注。图 / opinion.bdnews24.com什么是人口问题？简言之，人口问题就是由于人口在数量、结构、分布等方面快速变化，造成人口与经济、社会以及资源、环境之间的矛盾冲突。图 / bioventures.wordpress.com那么，人口问题会带来哪些负面影响呢？气候变化：在过去的半个世纪中，来自矿物燃料燃烧的碳排放增加速度几乎是人口增长速度的两倍，使大气层主要温室气体二氧化碳的浓集度比前工业时期提高了30％。图 / inequality.org图 / www.telegraph.co.uk水资源短缺：水资源的短缺已经成为全球性问题，联合国在1997年《对世界淡水资源的全面评价》报告中指出：“缺水问题将严重地制约21世界经济和社会的发展，并可能导致国家间的冲突。”图 / www.independent.co.uk生物多样性减少：在人类现代生活中，物种以100～1000倍的自然速率消失，这是从6500万年前白圣纪末期恐龙绝迹以来，动植物最大量灭绝的时期。物种灭绝的根本原因是人口密度增大导致了动植物生存自然环境的恶化。图 / www.wealthywaste.com森林面积减少：人口迅速增长，过度放牧和过量采集木柴使世界现存大片原始森林退化。图 / www.fao.org粮食危机：据统计，从本世纪中叶以来，全球耕地面积增加了19％，而世界人口却增长了132％。如何用有限的耕地来养活逐渐庞大的人口成为了整个社会必须应对并亟需解决的问题。图 / articles.mercola.com生物肥料与生物农药能提高耕地质量生物肥料不仅含有作物所需的营养元素，又含有微生物的制品，是生物、有机、无机的结合体，为农作物提供生长发育所需的各类营养元素。图 / www.survivopedia.com采用生物肥料可以使地力得到迅速恢复：土壤微生物群量猛增，高达每克土含10亿个以上；团里结构增强，有机质含量增加，通气性、保水性、保肥性得到根本改善。图 / www.abc.net.au并且，由于微生物的活动，提高地温效果明显，大量的放线菌群和霉菌群抑制了作物病原的发生。大量的生物酶和未知因子（U.G.F）参入作物代谢循环，提高作物光合磷酸化作用。图 / www.istockphoto.com作物的产量、品质的改善，达到超出人们意料的效果。可以说，生物肥料在种植业上的增产效果，以及产品品质的改善，起到化肥不能代替的作用。更重要的是，它能使种植业步入一个良态循环，使土地恢复肥力，长效增产。图 / www.globoforce.com 生物农药是来自天然的化学物质或生命体，具有杀菌农药和杀虫农药的作用。相比于传统农药所具有的缺点，生物农药对生态环境影响小,极易被日光、植物或各种土壤微生物分解，而且可利用农副产品生产加工制得，生产成本低廉。所以说，生物农药不但保护了环境，也保护了生物圈。图 / www.agrobiochemicals.com生物农业开启农业升级的未来作为引领生物创新的世界先导，诺维信一直在探索利用微生物和酶提高农业的可持续性、保护环境、增产增收的技术。2013年12月，诺维信公司和孟山都建立了生物农业联盟 (TheBioAgAlliance)，促进农业领域环保型生物解决方案的研发和商业化，推动全球生态农业完成转型。生物农业联盟(The BioAg Alliance) 将依靠两家公司在各自农业生物制品方面投入的员工、技术和商业资产，研究可推动农业转型的新型微生物解决方案。长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。</t>
+  </si>
+  <si>
+    <t>“日本酵素”能不能帮你反手摸到肚脐？</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=205612130&amp;idx=1&amp;sn=c1515acfe637a8f8c8a7ef669080f256&amp;chksm=1603933621741a20927f06985366e7f6de8d358f7d44c6cdc17df236339ac5e341a47c918ad4#rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击上方蓝色字体关注诺维信生物科技博览~“日本酵素”到底有多神奇？作者：淀粉小博，江南大学食品科学系本科，美国普度大学食品科学博士，现在某大型跨国酶制剂生产公司从事酶的应用和开发。来源：“健康不是闹着玩儿”微信公众号：顶尖名校的生物医学博士们，明明白白地把健康和疾病知识讲给你听。任何其他媒体（包括线上线下平台和公众号等）申请转载，需联系“健康不是闹着玩儿”，联系邮箱：hi@jiankangkp.com读者张**问：吃酵素能排毒减肥吗？健康君评 本文是“健康流言鉴定”之六，讲讲“酵素”（关注我们，回复鉴定即可查看系列往期文章）。这也是最近非常流行的一种保健食品，不仅颜值很高，吃起来据说也算可口。但是，酵素并没有如厂商所言的各种诸如“排毒减肥”的功效。为啥呢？听听专门研究“酵素”的博士怎么说吧。这年头，生活啥都追求个高大上。如果一个商品，有个没听说过的名字，源自科技强国日本，能神奇地“排毒减肥，消耗过剩脂肪，增强免疫力，减轻大气污染对身体的积毒”，又有众多的广告语簇拥，比如“含有220种天然植物精华”，“根据特殊技术制造”，“抢占日本药妆柜台的半壁江山”等等，普通人都难免心动，尤其是一众爱美女性，这就是“日本酵素”。只是这年头太完美的东西总是难以让人相信，本文就来窥探一下这类“日本酵素”的究竟。酵素，酶，Enzyme，是同一个东西的日语，中文，英文叫法。酵素就是酶，我没学过日语，所以下文中都用“酶”这个词替代“酵素”。酶是什么酶是一类特殊的蛋白质。万物生长都需要酶，无论植物，微生物，动物还是人类；生长的每一种方式都需要酶，发育需要，代谢也需要。生物界里有数不尽的酶，每一种都不一样，管植物光合作用的酶管不了人的呼吸，负责人体消化的酶不能帮你脑洞大开，同样分解鸡蛋的酶消化不了猪油，因此我们说酶有特异性，一种酶只能干非常特别的一点事情。酶并不是一种新东西，它其实一直都存在于我们的生活中。因为淀粉酶，早餐桌上的面包被放置了几天仍然松软而有弹性； 
+因为纤维素酶，牛仔裤洗了多次也不掉色；因为蛋白酶，我们只需要加一点点洗衣剂，就能洗干净一整筐的脏衣服……日本酵素是什么日本酵素是一类商品的总称，无论包装是胶囊，干粉或者液体形式，其成份主要来源于发酵的蔬菜水果，美其名曰为“精华提炼”。提炼出的精华即为商品宣称的“多种酵素”。“精华提炼”是怎么回事？生产日本酵素的工艺被称为发酵。文艺地说发酵是把各种果蔬放在一起，给予适当的温度湿度，让果蔬中自带的一类微生物，乳酸菌，发生代谢反应，分解果蔬中的蛋白质，最后生成氨基酸，乳酸，维生素等营养物质。直白地说发酵就和腌泡菜一个原理。发酵过程中，酶并没有啥特别的，它以普通蛋白质的身份被从果蔬中释放出来，作为一种可被微生物利用的营养源，被快速分解，与所有其它蛋白质无异。一旦被分解，酶就不复存在，因此发酵过后，能残活的酶已非常少，几乎可以忽略不计。简言之，这么多种果蔬被精华提炼之后，成份中已经基本没有酶。也就是说，“日本酵素”里面几乎没有“酵素”。残留的酶能否发挥神奇功效？人体消化道的每一个组成器官都含有帮助消化的酶。尤其是胃蛋白酶，专门攻击食物中带来的各种蛋白质，在胃中将它们分解消化，胃蛋白酶才不管你是日本酵素还是红烧肥肠。果蔬经历精华提炼后残存下的一点点酶，作为蛋白质进入人体后，也难逃被消化道蛋白酶分解的厄运。我们即使假设日本酵素中有超强酶，可以不被分解，人吃了也是没用的。因为每一种酶要想发挥作用，必须得有活性，不然就等同于普通蛋白质。酶要有活性需要特定的温度，酸碱度和作用对象，任何一个条件不满足，酶都不会有功能。在人体消化系统的恶劣环境下，果蔬中带来的酶要么战死于消化道，要么被俘虏捆绑住手脚，没有用武之地也就发挥不了活性，又何谈神奇功效？也许有人会想，那么多种果蔬的混合，说不定就有能减肥，消耗脂肪的脂肪酶在消化道的恶劣条件下反而被激发出了活性呢？这种概率之低无异于连续被雷劈三次。但就算真能被激活，又有多少这种酶能存在于每日摄入的那几粒胶囊中呢？面对大家肚皮上的肥肉，那点脂肪酶怕是连心理安慰奖都评不上。还有一种日本酵素号称采用冻干技术以保持酶的活性，显得很专业，这个更好么？这一句单独来看是没有错的，冷冻干燥技术的确可以帮助酶在自然条件下保持活性。但还是一样的问题，被保存的酶一旦被人体摄入，还是要经历我们消化系统各种超强蛋白酶的攻击，结局就是一个字：“死”。日本酵素有害么？在我看来，“日本酵素”和酶本身一点关系都没有，作为发酵果蔬的“日本酵素”主要成份是氨基酸，多肽，维生素（如果商家还有点良知的话），这些都属营养物质，和吃氨基酸和维生素胶囊是一个意思。再者，这些果蔬中理论上含有纤维和益生菌，能帮助通便。但吃那么几粒日本酵素胶囊，远不如吃一个苹果或者红薯的纤维，或者一杯酸奶的益生菌量。日本酵素里面的所有东西通过正常均衡膳食都能获取，但现代人嘛，就是喜欢时尚的东西，多少补充点，也倒没啥坏事，但遇到黑心商家往里面添加点别的东西可就不好说了。总之，“日本酵素”卖的是酵素，也就是酶的概念，但其宣传的功效跟酶没有关系，其实就是最普通的保健品而已。与很多保健品一样，它最大的作用或许是能给人带来正面的心理暗示，心情好了身体就好，但在科学上看它号称的神奇功能是没有任何依据的。长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。 “日本酵素”到底有多神奇？作者：淀粉小博，江南大学食品科学系本科，美国普度大学食品科学博士，现在某大型跨国酶制剂生产公司从事酶的应用和开发。来源：“健康不是闹着玩儿”微信公众号：顶尖名校的生物医学博士们，明明白白地把健康和疾病知识讲给你听。任何其他媒体（包括线上线下平台和公众号等）申请转载，需联系“健康不是闹着玩儿”，联系邮箱：hi@jiankangkp.com读者张**问：吃酵素能排毒减肥吗？健康君评 本文是“健康流言鉴定”之六，讲讲“酵素”（关注我们，回复鉴定即可查看系列往期文章）。这也是最近非常流行的一种保健食品，不仅颜值很高，吃起来据说也算可口。但是，酵素并没有如厂商所言的各种诸如“排毒减肥”的功效。为啥呢？听听专门研究“酵素”的博士怎么说吧。这年头，生活啥都追求个高大上。如果一个商品，有个没听说过的名字，源自科技强国日本，能神奇地“排毒减肥，消耗过剩脂肪，增强免疫力，减轻大气污染对身体的积毒”，又有众多的广告语簇拥，比如“含有220种天然植物精华”，“根据特殊技术制造”，“抢占日本药妆柜台的半壁江山”等等，普通人都难免心动，尤其是一众爱美女性，这就是“日本酵素”。只是这年头太完美的东西总是难以让人相信，本文就来窥探一下这类“日本酵素”的究竟。酵素，酶，Enzyme，是同一个东西的日语，中文，英文叫法。酵素就是酶，我没学过日语，所以下文中都用“酶”这个词替代“酵素”。酶是什么酶是一类特殊的蛋白质。万物生长都需要酶，无论植物，微生物，动物还是人类；生长的每一种方式都需要酶，发育需要，代谢也需要。生物界里有数不尽的酶，每一种都不一样，管植物光合作用的酶管不了人的呼吸，负责人体消化的酶不能帮你脑洞大开，同样分解鸡蛋的酶消化不了猪油，因此我们说酶有特异性，一种酶只能干非常特别的一点事情。酶并不是一种新东西，它其实一直都存在于我们的生活中。因为淀粉酶，早餐桌上的面包被放置了几天仍然松软而有弹性； 
+因为纤维素酶，牛仔裤洗了多次也不掉色；因为蛋白酶，我们只需要加一点点洗衣剂，就能洗干净一整筐的脏衣服……日本酵素是什么日本酵素是一类商品的总称，无论包装是胶囊，干粉或者液体形式，其成份主要来源于发酵的蔬菜水果，美其名曰为“精华提炼”。提炼出的精华即为商品宣称的“多种酵素”。“精华提炼”是怎么回事？生产日本酵素的工艺被称为发酵。文艺地说发酵是把各种果蔬放在一起，给予适当的温度湿度，让果蔬中自带的一类微生物，乳酸菌，发生代谢反应，分解果蔬中的蛋白质，最后生成氨基酸，乳酸，维生素等营养物质。直白地说发酵就和腌泡菜一个原理。发酵过程中，酶并没有啥特别的，它以普通蛋白质的身份被从果蔬中释放出来，作为一种可被微生物利用的营养源，被快速分解，与所有其它蛋白质无异。一旦被分解，酶就不复存在，因此发酵过后，能残活的酶已非常少，几乎可以忽略不计。简言之，这么多种果蔬被精华提炼之后，成份中已经基本没有酶。也就是说，“日本酵素”里面几乎没有“酵素”。残留的酶能否发挥神奇功效？人体消化道的每一个组成器官都含有帮助消化的酶。尤其是胃蛋白酶，专门攻击食物中带来的各种蛋白质，在胃中将它们分解消化，胃蛋白酶才不管你是日本酵素还是红烧肥肠。果蔬经历精华提炼后残存下的一点点酶，作为蛋白质进入人体后，也难逃被消化道蛋白酶分解的厄运。我们即使假设日本酵素中有超强酶，可以不被分解，人吃了也是没用的。因为每一种酶要想发挥作用，必须得有活性，不然就等同于普通蛋白质。酶要有活性需要特定的温度，酸碱度和作用对象，任何一个条件不满足，酶都不会有功能。在人体消化系统的恶劣环境下，果蔬中带来的酶要么战死于消化道，要么被俘虏捆绑住手脚，没有用武之地也就发挥不了活性，又何谈神奇功效？也许有人会想，那么多种果蔬的混合，说不定就有能减肥，消耗脂肪的脂肪酶在消化道的恶劣条件下反而被激发出了活性呢？这种概率之低无异于连续被雷劈三次。但就算真能被激活，又有多少这种酶能存在于每日摄入的那几粒胶囊中呢？面对大家肚皮上的肥肉，那点脂肪酶怕是连心理安慰奖都评不上。还有一种日本酵素号称采用冻干技术以保持酶的活性，显得很专业，这个更好么？这一句单独来看是没有错的，冷冻干燥技术的确可以帮助酶在自然条件下保持活性。但还是一样的问题，被保存的酶一旦被人体摄入，还是要经历我们消化系统各种超强蛋白酶的攻击，结局就是一个字：“死”。日本酵素有害么？在我看来，“日本酵素”和酶本身一点关系都没有，作为发酵果蔬的“日本酵素”主要成份是氨基酸，多肽，维生素（如果商家还有点良知的话），这些都属营养物质，和吃氨基酸和维生素胶囊是一个意思。再者，这些果蔬中理论上含有纤维和益生菌，能帮助通便。但吃那么几粒日本酵素胶囊，远不如吃一个苹果或者红薯的纤维，或者一杯酸奶的益生菌量。日本酵素里面的所有东西通过正常均衡膳食都能获取，但现代人嘛，就是喜欢时尚的东西，多少补充点，也倒没啥坏事，但遇到黑心商家往里面添加点别的东西可就不好说了。总之，“日本酵素”卖的是酵素，也就是酶的概念，但其宣传的功效跟酶没有关系，其实就是最普通的保健品而已。与很多保健品一样，它最大的作用或许是能给人带来正面的心理暗示，心情好了身体就好，但在科学上看它号称的神奇功能是没有任何依据的。长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。 </t>
+  </si>
+  <si>
+    <t>参赛作品：绝世球星 &amp; 环境日动员</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=205519960&amp;idx=4&amp;sn=89bc269a0fba7937bf84eb6ca02a6e61&amp;chksm=167d0b0c210a821ae075a20b77e4faedea00902f0dd4a94455bb3c9cb3359400b53c8746bda1#rd</t>
+  </si>
+  <si>
+    <t>点击“阅读原文”，参与投票，就有机会获得精美礼品“从改变开始”诺维信杯大学生微视频大赛参赛作品绝世球星环境日动员长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。 点击“阅读原文”，参与投票，就有机会获得精美礼品一份~</t>
+  </si>
+  <si>
+    <t>6月9日-12日|诺维信与您相约2015中国国际环保展览会</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=205453545&amp;idx=1&amp;sn=c8400b7daa49f84fc6ada5d9ec193511&amp;chksm=167c0fbd210b86abf0a9fd212700f1c923eafe7758f8c27f8f7073bb1180cb22496986e2a334#rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击上方蓝色字体关注诺维信生物科技博览吧~第十四届中国国际环保展览会(CIEPEC) 今天开幕。本届展会荟集了大气污染防治、水污染防治、固体废物处理处置、重金属与土壤修复等领域的前沿技术。在这里，您可以捕捉行业最新资讯，与专业人员探讨环境污染治理方案。诺维信诚邀您光临北京中国国际展览中心(老国展)，了解如何世界领先的废水处理生物解决方案。展位信息：3号馆，3613展位参展时间：2015年6月9日-12日展馆地址：北京中国国际展览中心(老国展)长按下方二维码，选择“识别图中二维码”，了解诺维信污水处理业务更多相关信息。  </t>
+  </si>
+  <si>
+    <t>世界环境日|诺维信肩负着清洁环境和引导绿色理念的使命</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=205347829&amp;idx=1&amp;sn=29df6355189ca9a06567daf7da56296f&amp;chksm=167faca1210825b7407cf25320217c12bfe072d789741ef6e896cd4a453a469ffa60f2ca06d6#rd</t>
+  </si>
+  <si>
+    <t>Clarion召唤生物质能源的普及丹麦酶制剂制造商肩负着清洁环境和引导绿色理念的使命在许多中国农民的传统观念里，小麦秸秆、玉米秸秆和其他农业废弃物的唯一用途就是燃烧，即便这会造成空气污染。但Graziela Chaluppe dos SantosMalucelli持有另种观点：将秸秆转化成生物质，可以减少环境污染。丹麦生物科技公司诺维信的亚太区副总裁Graziela表示，这是一个特别适合中国的解决方案。“我们着手调查了中国有哪些生物质，我们如何与合作伙伴一起利用这些生物质来生产出高附加值的产品。”这位从2013年开始到中国生活的巴西人谈道。诺维信是世界上最大的工业酶制剂制造商，其工业酶制剂占全球48%的市场份额。据透露，在中国该公司拥有一半以上的市场份额。诺维信也是丹麦在华最大的投资企业，中国是其仅次于北美的全球第二大市场。该公司称，自1994年以来，公司在华投资总额已超过4亿美元（合3.64亿欧元）；公司近几年在中国的销售收入年均增长8%左右。该公司还透露去年一年，诺维信帮助全球减少了6,000万吨的二氧化碳排放，这相当于2,500万辆汽车一整年的碳排放总量。诺维信涉足的主要业务领域包括生物燃料、食品饮料以及家居护理，比如洗涤剂。它还致力于用小麦秸秆、玉米秸秆和其他农业废弃物制造乙醇，以减轻对化石燃料的依赖。Malucelli介绍，每年一家乙醇工厂可以制造6万吨二代乙醇，为农村地区提供2,000个直接和间接工作岗位，创造4,200万元人民币（合680万美元；620万欧元）的生物质销售收入。她表示，随着中国的经济增速放缓，经济发展模式向更可持续的方向转变，诺维信意味着更多机遇。“有关产业整合的讨论非常热烈，业界在积极寻求提高生产效率的方式和更多可持续发展的制造模式。这和诺维信所做的事情联系密切。我们提供的生物解决方案可以帮助客户改进工艺流程，并且减少用水、能耗和农业废物。我们为企业提供可再生能源解决方案以及绿色环保技术。”Malucelli表示，公司今年已开始采用新的对华战略。“新战略的核心思想是合力。它意味着和合作伙伴：客户、研究机构、政府及学术界携手致力于探寻创新的解决方案。因为世界人口的激增带来了对食品、创新以及可持续发展的更多需求。”她指出，该战略的核心内容包括扩展在华合作伙伴渠道，引领技术创新，加大人才培养力度，增强生物科技普及教育。“我们想增进人们对生物技术的了解，尤其生物技术能给世界带来什么样的改变。”诺维信的目标是，到2020年，让其有关环境可持续发展重要性的宣传喧嚣可以覆盖10亿民众。诺维信每年将大约14%的销售收入用于研发。对此，Malucelli表示这也是诺维信能取得在中国及其他国家领先于其竞争对手的重要原因。该公司在中国有1000多名员工，其中有200名员工在从事研发工作。“我们需要开发特别面向中国、专门解决中国面临的问题的解决方案。”去年，诺维信入选国家发改委2014低碳榜样；2009年，福布斯杂志预测了100年后仍能存在的100家企业，诺维信位列其中。诺维信在天津、江苏苏州和设有工厂。在山东济南设有创新中心，北京设有中国研发中心，与中国及其他国家的学术机构合作从事研发工作。公司在中国生产的一些产品已被出口到欧洲和美国。广州立白集团是诺维信在中国的合作企业之一，5月21日，立白推出由诺维信参与开发的全新永维酶洗衣液。“诺维信和立白在创新和企业社会责任方面有许多共同点。”中国日化龙头企业立白集团副总裁许晓东表示，“诺维信的生物酶对环境友好，而我们想要寻求可持续发展，所以我们的合作是顺应行业的发展趋势。”Malucelli表示，城市化给诺维信创造了众多机遇，因为城市必需以可持续的方式发展。“食品行业是我们的重点业务领域之一，我们希望减少食品加工过程中产生的浪费和能源损耗。”“对于农业，如果将生物技术与种子和作物结合使用，可以提高农作物产量。我们可提供一些解决方案帮助保护农田免遭病虫害，以及减少废物产生。我们还拥有让作物更高效地生长的技术。”“伴随着在中国的发展步伐，公司需要寻找优秀、可靠的合作伙伴，更需要让更多人了解如何使用生物解决方案。许多应用在其他地方的创新成果将要进入中国。”她表示：“我们面临的挑战包括解决方案的引进，了解它们在这里有哪些应用。有时候客户不知道他们使用的产品可以通过生物酶实现更具可持续性的生产方式。这也说明了普及教育的重要性。”Malucelli说她看到的中国在过去几年最大的变化是创新的意愿、寻求适合本地的解决方案。“中国社会正在进步，民众更加了解如何改善自己的生活，如何购买更好的产品。这就创造了新的需求，所以企业必须要及时创新，只停留在已有解决方案上的企业是难以永续发展的。”长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。 点击左下角“阅读原文”，查看英文报道原文</t>
+  </si>
+  <si>
+    <t>庆祝中丹建交65周年 -- 诺维信持续倡导生物创新共推可持续发展</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=204593414&amp;idx=1&amp;sn=9088960400795ac0b85c1c10f124ea88&amp;chksm=16732e522104a7449d86813d835d499379178bf1e67202090b470cca4aff68a295ff5c8137b4#rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击上方蓝色字体关注诺维信生物科技博览~5月11日，来自丹麦和中国的国家领导人集聚一堂共同庆祝两国建立外交关系六十五周年。庆典活动在人民大会堂举行，包括一场农业和可持续发展主题论坛及庆祝晚宴。诺维信公司作为在华投资最大的丹麦企业之一受邀出席周年庆祝活动，并在大会上发表“生物技术促进自然资源的有效利用”主题演讲。“丹麦是最早承认新中国国际地位并与之建交的西方国家之一。这样深厚的根基在我们的对华关系中显得格外重要。我们同时也是一个多世纪以来唯一一个同中国有着不间断外交关系的西方国家，始于1908年。”丹麦驻华大使裴德盛先生说：“今天的庆祝就是两国友谊的见证。”中丹两国关系在过去的六十五年中取得了长足的进步。现在，中国已经成为丹麦在亚洲最大的贸易伙伴和出口市场。最近几年中，丹麦同中国合作的领域越来越广泛，从社会事务、法律事务、反腐败贪污、外交政策，一直到国防。诺维信中国区总裁兼亚太区运营副总裁 Graziela 女士在致辞中表示：丹麦王国在绿色环保和清洁技术领域拥有全球公认的领先优势。诺维信公司源自丹麦，是工业生物技术的世界先导，致力于工业酶制剂、微生物制剂和生物制药成分业务。一直以来，诺维信通过不断开展与中国政府、科研机构、高校以及中国企业的深入合作，积极倡导并有效推动生态工业与循环经济，成为中国最佳生物解决方案提供商和中国可持续发展的重要战略合作伙伴。一起携手重塑未来，共同寻找生物解决之道，使我们在不断发展的世界中生活得更好，这就是诺维信的使命。诺维信不断创新的生物技术解决方案，正在影响和帮助我们的客户提升自身业务，同时成为环境和社会变革的先锋，实现发展中的平衡这一理想目标。据悉，诺维信业务主要覆盖生物燃料、食品与饮料、家居护理等领域。在自然资源再利用方面，诺维信则通过创新的生物解决方案，以麦秸、玉米秸秆等农业废弃物和利用边际土地种植的能源作物为原料，生产燃料乙醇及生物基化学品，降低人类对化石能源的依赖。诺维信通过提供先进的生物燃料行业所需的酶制剂产品与优化的工艺，创造了更多的就业机会，带动经济增长，同时带来了更为安全的能源，实现可持续发展。从经济角度，一家年产6万吨二代纤维素乙醇的工厂能创造出2000个直接间接的就业机会，每年会带来约1亿元人民币的收入。从社会角度来看，年产量约为6万吨的二代纤维素燃料乙醇在生产过程中剩余的木质素可以发电1.2亿度，这样的解决方案不仅控制了农村秸秆燃烧带来的污染，而且改善城市机动车尾气排放，每年实现碳减排量约为3万吨。诺维信积极履行企业社会责任，在2014年道琼斯可持续发展指数化工行业排行榜中位列前三。2014年，诺维信生物技术的应用为全球工业生产减少了约6000万吨CO2排放，相当于2500万辆小汽车的年排放量。如今，诺维信中国已经与中粮、中石化、大成集团、梅花集团、立白、纳爱斯、西王等品牌形成战略合作伙伴关系。其中，诺维信与中粮的合作关系更是超过10年。从2002年中国第一家燃料乙醇企业 -- 华润金玉开始投产，诺维信的酶制剂已经开始为中国生物液体燃料的本土化、清洁化做出贡献。随之，中粮与诺维信的合作关系也日益紧密。2006年，基于对生物能源的未来共同的认识，中粮和诺维信开始携手第二代生物燃料 -- 纤维素乙醇的合作研发，很快建成第一个500吨规模的中试厂并开始运行。2009年，中石化加入了合作研发，三方的合作在产业链上更加完备。2014年，丹麦女皇访华时曾表示希望中丹双方积极拓展贸易、投资、农业、创新研发、医疗卫生、食品安全、节能环保等领域合作。今年恰逢中丹建交65周年，在此之际，诺维信将秉承“合作打造影响力”的全球战略，通过与政府、高校以及行业客户等合作伙伴深度合作，共同研发生物解决方案，促进业务发展产业升级，共同实现可持续发展的愿景。长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。 </t>
+  </si>
+  <si>
+    <t>5月6日-8日|诺维信邀您光临上海环博会</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=204401579&amp;idx=1&amp;sn=7d946809ea7ffa80b537b9ece098f43f&amp;chksm=166c1cff211b95e96795f0916fc14a3ab8b8457353913d55c269be722ce6184d7318911bca36#rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击上方蓝色字体关注诺维信生物科技博览~诺维信污水业务废水处理对工业制造商，城市和社会都至关重要。不断增长的人口和工业产值使高效和符合成本效益的废水处理变得比以往任何时候都更为重要。干净的水是不可替代的自然资源。大多数行业都出台了相关立法。废水处理方案必须高效并且副作用小。适用于多种行业以及符合成本效益的微生物废水解决方案可将废水转化为清洁的水，并且不使用任何化学品。诺维信提高了污水处理设施的效率，降低了运营成本。我们通过微生物技术来简化运作，同时避免了许多废水处理传统方法中的不足。通过简化废水处理过程，以微生物为基础的废水处理技术节约了水、电和化学品的使用，这样一来，不仅节约了成本，还减少了对环境的负面影响。诺维信专家已经与成千上万的污水处理厂进行合作，通过诊断他们的污水处理系统，提出修改建议和解决方案，以帮助他们提高效率和降低成本。诺维信坚定不移的承诺：我们始终为您提供高效，具有成本效益和环保的废水处理方案。第十六届中国环博会即将在上海新国际博览中心精彩呈现。诺维信邀您光临本届环博会，了解如何通过微生物菌群优化您的污水厂运行。  展位信息：2号馆，2243参展时间：2015年5月6-8日展馆地址：上海新国际博览中心 （上海市浦东新区龙阳路2345号）长按下方二维码，选择“识别图中二维码”，了解诺维信污水业务更多相关信息。 </t>
+  </si>
+  <si>
+    <t>5月6日-8日|全球顶尖环境微生物专家诺维信与您相约上海环博会</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=204123013&amp;idx=1&amp;sn=b2792b8f9d49e81c3ae52b55e77ac2c1&amp;chksm=16685cd1211fd5c76d3ea347bfe6b79a5529c916d6f4599c60b7d925f7aacf8663291bd460a5#rd</t>
+  </si>
+  <si>
+    <t>第十六届中国环博会即将在上海新国际博览中心精彩呈现！届时，最前沿的行业资讯、最高品质的环境污染治理方案将为您一一呈现  。在这里，你可以与行业专家畅所欲言、捕捉最新资讯，以及探讨环境污染治理方案。诺维信诚邀您光临本届环博会，了解如何通过微生物菌群优化您的污水厂运行。展位信息：2号馆，2243参展时间：2015年5月6-8日展馆地址：上海新国际博览中心 （上海市浦东新区龙阳路2345号）长按下方二维码，选择“识别图中二维码”，了解诺维信污水业务更多相关信息。 点击“阅读原文”，更多惊喜等待您。</t>
+  </si>
+  <si>
+    <t>地球日|我们不谈环保，只谈生存</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=204073334&amp;idx=1&amp;sn=f4bd94fc3a4fc7d4657b0ec956f9b0aa&amp;chksm=166b1e22211c97341942ff27ed6fb2d4a59e68dc508970500a950c432c70c0751f6391e801e3#rd</t>
+  </si>
+  <si>
+    <t>点击上方蓝色字体关注诺维信生物科技博览~Whenever people settled down, survival depended on their relationship with the surrounding environment.无论在何处定居，人们的生存都取决于与周围环境的和谐关系。然而，18世纪的全球贸易和工业革命改变了这种生活方式。人们开采全球资源并用于工业大生产，从而创造了一个物质富足的社会。新兴的消费者阶层却并不知道产品来自何处以及它们是如何生产出来的。在这个新世界中，一些企业家开始关心社会问题并资助慈善活动，比如卡内基和洛克菲勒。多年以来，慈善已成为众多公司表现其社会责任的主要方式。但是到了20世纪60年代，一系列的事件促使人们开始重视由于人类行为所导致的环境破坏问题。1962年，美国生物学家蕾切尔·卡森写了《寂静的春天》(SilentSpring)一书。在这本书中，她记录了农药的使用对环境的危害。一些企业将此视为影响商业的不利因素并开始采取主动措施，降低风险。他们这么做的目的主要是为了避免巨额的清污费、法律诉讼以及不良企业声誉。工业生产对环境的影响也因此从根本上成为一个更广泛、更全球性的问题。直到1985年,英国南极考察队在南纬60°地区观测发现臭氧层空洞……《可持续发展与诺维信》（时长八分钟，建议WiFi下观看） 世界可持续发展的历史诺维信的方式践行可持续发展的实例因为视频的不可即时查阅性，我们贴心为您准备了字幕稿。如果不方便及时查看，建议收藏。可持续发展的历史可追溯至人类文明最早出现的时代。无论在何处定居，人们的生存都取决于与周围环境的和谐关系。18世纪的全球贸易和工业革命改变了这种生活方式。人们开采全球资源并用于工业大生产，从而创造了一个物质富足的社会。然而新兴的消费者阶层却并不知道产品来自何处以及它们是如何生产出来的。在这个新世界中，一些企业家开始关心社会问题并资助慈善活动，比如卡内基和洛克菲勒。多年以来，慈善已成为众多公司表现其社会责任的主要方式。但是到了20世纪60年代，一系列的事件促使人们开始重视由于人类行为所导致的环境破坏问题。1962年，美国生物学家蕾切尔·卡森写了《寂静的春天》(SilentSpring)一书。在这本书中，她记录了农药的使用对环境的危害。一些企业将此视为影响商业的不利因素并开始采取主动措施，降低风险。他们这么做的目的主要是为了避免巨额的清污费、法律诉讼以及不良企业声誉。工业生产对环境的影响也因此从根本上成为一个更广泛、更全球性的问题。发生在1985年的臭氧层空洞事件让这个问题变得更为清晰。当时科学家们在南极上空发现了一个巨大的臭氧层空洞，而这是由于遥远的工业生产和消费排放所致。在1987 年，《布伦特兰报告》（Brundtland Report）出版。这个报告强调了环境、社会与经济议题之间的紧密联系，并将“可持续发展”一词引入公众讨论。在接下来的数十年间，这一讨论受到一系列企业丑闻的影响。最恶劣的一个事件发生于1989年的阿拉斯加，当时埃克森公司瓦尔迪兹号油轮泄漏了25万多桶原油，导致大量生物丧生。埃克森公司由于在清理泄漏原油时的缓慢反应而广受指责。企业日益被视为“问题的核心所在”。20世纪末期，可持续发展成为公众议论的热点，一些公司开始改变处理问题的方式。仅仅避免事故和丑闻的发生是远远不够的。他们开始采取更为积极有利的方式，比如废弃物循环利用。地毯制造商 Interface FLOR即是这样的一个代表。1994年，该公司开始采取措施，大幅减少浪费和资源消耗。不仅如此，他们还开发出了一系列可完全回收利用的产品。 越来越多的企业不愿再成为“问题制造者”，而是成为可持续发展的拥趸。不久后，投资者也开始对可持续发展显示出浓厚的兴趣。1999年，道琼斯股票交易所发布“可持续发展指数”。紧接着在2000年，联合国启动“全球契约”计划，企业可以通过签署关于人权、劳工、环境和反腐败等十项原则加入。千禧年之后，更多的企业开始践行可持续发展。2006年，沃尔玛决定投资5亿美元用于可持续发展项目，努力将这个全球最大的零售企业转变为最环保的企业之一。这只是实践可持续发展全新方式的一个范例。可持续发展本身已从慈善活动、风险管理、降低成本转变为商业发展的新驱动。今天，可持续发展已成为公众关注的重要议题。消费者期望更加可持续的产品。立法者努力加强法规力度。商业领域对可持续发展解决方案的需求也越来越高。可持续发展的内涵日益丰富，与之相关的机会也日益增多。在诺维信，可持续发展始终是我们业务的核心。这一切始于20世纪50年代，当时丹麦诺和公司开始生产微生物酶。诺和公司是最早的可持续发展先行者。在1975年就成立了独立的环境部门，负责检测生产过程中的废弃物、水、噪音和异味。诺和公司还采用三重底线原则，以对经济、环境和社会负责任的方式开展企业活动。2000年，诺维信与诺和诺德分立，诺维信接管了酶制剂业务。诺维信公司依然是全球可持续发展领域的先导企业。我们成立了可持续发展委员会，由来自公司所有重要领域的高级代表组成。在可持续发展委员会领导下，我们开展了许多可持续发展项目，包括供应商评估、商业诚信原则以及可持续发展宏伟目标等。2001年，我们加入联合国全球契约计划，同一年，我们成为道琼斯可持续发展指数生物技术板块的领军企业。诺维信坚定不移地致力于可持续发展。我们注重全价值链的可持续发展方案和商业实践。我们的价值链包括供应商、诺维信、客户、零售商和终端消费者。从2008年开始，诺维信对供应商的可持续发展表现进行评估。如果供应商不达标，我们会提供支持，帮助他们改善和提高，否则将他们从我们的供应商名录中剔除。在诺维信，可持续发展已植根于整个组织。我们的可持续发展委员会设定了雄心勃勃的年度目标，此目标的实现与否也成为关系员工奖金福利计划的重要部分。我们进行生命周期评估，对传统技术与生物解决方案的不同环境影响进行比较。我们记录诸如二氧化碳减排等环境影响，客户可据此作出可持续发展宣言。2011年，通过应用诺维信的产品，我们帮助客户减少了4500万吨的二氧化碳排放。诺维信与零售商结盟，帮助提高我们的客户的表现从而满足零售商的要求。同时我们也将可持续发展议程传递给有重要影响力的伙伴，从价值链上帮助我们的客户变得更可持续。在诺维信，我们鼓励客户采取更加可持续发展的行为。例如，从2009年开始的“I do 30”的项目。该项目的目标是帮助欧洲消费者意识到降低洗涤温度所带来的环境好处。除了在价值链中的努力，我们还与其他利益相关者合作：我们积极配合政策制定者，通过法规推动可持续发展实践。我们与非政府组织合作以唤起公众关注。例如，我们与世界自然基金会(WWF)合作，寻找减少首个十亿吨二氧化碳排放的低碳生物方案。越来越多的投资者更愿意选择拥有可持续发展商誉的企业。自2002年以来，诺维信发布包含可持续发展信息的综合年报，我们已走在这一趋势的最前沿。以上仅是其中的一些范例,但未来还有更多可能。如果开始探索更多商业领域的价值链，我们将会发现更多机会，推动世界朝着可持续发展的目标前进。长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。（图片来源于网络）</t>
+  </si>
+  <si>
+    <t>“世界地球日环保随手拍”大赛开始啦！精美礼品等你来领</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=203848647&amp;idx=1&amp;sn=051bdbdf45fa7cb65df56090cd3b4537&amp;chksm=16648c9321130585f8d1f9835b74031cb0a3a0628ecdee33920c4047d08bff5701e16e38f423#rd</t>
+  </si>
+  <si>
+    <t>4月22日是世界地球日（World Earth Day），作为一项全球性的环境保护活动，每年的这一天，全球各地都将举办多样的环境保护活动，唤醒人们爱护地球保护家园的意识。在国内，日益严重的雾霾引起人们对环保的重视，因此地球日开始受到更多人的关注。然而，雾霾等环境问题不是一天形成的，是几十年积累的结果，治理雾霾也不是一天能完成的。为了我们赖以生存的星球，不只是在地球日，关爱地球的行动需要从生活中的每一天着手。保护每一寸地球的土地，珍惜清新空气与珍贵的水资源，力所能及的节约每一份资源。怀着对人类、植物及大自然万物的尊重之情，用心呵护大自然给予的馈赠。谁说你不能改变世界？关爱地球，从身边的小事做起：绿色出行 拒绝使用一次性不可降解塑料制品 垃圾分类回收栽种绿色植物世界地球日环保随手拍每天都是地球日,环保只是举手之劳你能想到的环保方法有哪些呢？使用布袋乘坐公共汽车双面使用纸张随手关灯...拍下你身边的环保新发现，与指定图片一同发到朋友圈，就有机会赢得小米手环一个活动时间：4月13日-4月26日参与方式：1.将自己拍下的环保新发现图片以及活动指定图片一起发送至朋友圈。文字内容为：世界地球日环保随手拍2.将朋友圈发帖记录截屏发送至微信平台。截止时间为4月26日晚24点例如：轻松赢大礼：最终我们会随机抽取6名获奖者，每位获奖者将会得到小米手环一个，获奖名单将通过微信平台实时公布。指定图片（发朋友圈的时候记得要带上它哟~） 使用方法：请长按图片，点保存还在犹豫什么 赶快开始行动吧~（图片来源于网络）轻松赢大礼：最终我们会随机抽取6名获奖者，每位获奖者将会得到小米手环一个，获奖名单将通过微信平台实时公布。指定图片（发朋友圈的时候记得要带上它哟~） 使用方法：请长按图片，点保存还在犹豫什么 赶快开始行动吧~（图片来源于网络）</t>
+  </si>
+  <si>
+    <t>清明节，你吃青团了吗？</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=203658029&amp;idx=1&amp;sn=022419cacdab792f5a99fabada6decb2&amp;chksm=166164792116ed6fc17134e07ae0fcaac0193510eee2d0dc47684fa31b36c2ca41bab2209c5b#rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击上方蓝色字体关注诺维信生物科技博览~青团，又称清明果、艾米果、艾粑粑等，是中国南方部分地区清明节时的食品之一，因为其色泽为青绿所以叫做青团。作为清明时节最有特色的节令食品之一，青团的制作方法在民间广为流传：用清明前后才有的一种艾草的汁拌进按比例配好的糯米/粘米中，手工揉匀，再根据各人喜好包裹不同的馅料蒸制。制作好的青团食用起来清甜甘香，软糯可口，带有淡淡的艾叶香气。然而，有些人对这种糯米制成的美食并不感冒，因为他们认为青团不易消化，吃完就会有“被噎着”的感觉。那么，糯米食品到底容不容易消化呢？软糯可口的青团真的会噎住你吗？ 中国农业大学食品学院营养与食品安全系副教授何计国谈及糯米消化时表示：“我们不建议多吃糯米，就是因为糯米的消化速度快，但是它消化不完全。” 糯米的这种特点基于它特殊的结构。“糯米大多是支链淀粉，分支多的话就容易与酶接触，被酶消化分解的时间就更短，分解速度更快。但分支的地方有一种人体不能消化的物质，可能5斤吃进去你只能分解3斤，你还得剩2斤，有些地方消化不了。”淀粉的消化需要淀粉酶的参与，这种酶存在于口腔与小肠，胃里却没有，因为胃的强酸环境易让淀粉酶失活。一般人理解的“消化”通常在胃里进行，但胃却几乎不会消化糯米，只能通过蠕动尽可能地将它磨碎，并推入小肠，促进下一阶段的消化吸收。因此，如果吃入太多糯米，容易导致胃动力减弱，产生“沉胃”的感觉。 所以，在这里我们提醒大家：青团吃之前最好先加热，因为青团中的糯米冷却后更容易反生，极不利于消化，而且其中的营养结构也会被破坏。还要提醒的是，吃青团时，尽量不要再吃肥肉，因为糯米这样难消化的食品如果与油脂混杂在一起则会加重肠胃负担，极易引起消化不良。图片来源于网络参考资料：糯米不易消化如何养胃http://health.sina.com.cn/hc/2014-01-18/0934121788.shtml  </t>
+  </si>
+  <si>
+    <t>世界水日：看酶制剂如何降低纺织工业生产耗水量</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=203354957&amp;idx=1&amp;sn=1d06ada51233aaa8f875c75c713861e8&amp;chksm=165c0419212b8d0fdbdf52d7126ae249f331f4f9ee7b166d9a57d1c7f6f59861d3436ba5eadc#rd</t>
+  </si>
+  <si>
+    <t>点击上方蓝色字体关注诺维信生物科技博览~ 随着人口的膨胀以及工农业生产规模的迅速扩大，人们对水的需求日益增加。实施适当的水源管理措施迫在眉睫。而水源管理措施实施的最大障碍是心理因素。虽然目前已具备成熟的技术可帮助我们管理水源供应，但如果人们不理解也不愿意改变他们长期以来的观念和用水习惯，那么变革就无从谈起。社‍会的各个层面—个人、社区、机构和企业—都必须实施适当的水源管理措施，贡献自己应有的力量。 酶制剂是广泛存在于自然界的微生物，在众多节水工作中发挥着重要的作用。 以纺织行业为例，在纺织工艺中采用生物酶技术可以极大地促进水资源的节约。因为在纺织工艺中，酶的应用可以加速工艺流程，并一次处理多个步骤。通过全生命周期的研究，我们可以证明酶制剂可以在每生产一吨针织面料时，节省70,000公升的水。也就是说，每件T-shirt可以省水约20公升。 按全球每年生产900万吨左右织物计算，如果所有织物都采用酶法工艺生产，那么全球每年可节省6,300亿升水。这些水足以满足2,400多万中国农村人口一年的用水需求。并且，还可以减少1到1.3吨的二氧化碳排放，这相当于4百万汽车的排放量。  废水利用也是解决水资源短缺的一项有效措施。废水处理指的是在来自工业设施、城市和城镇的废水被排放至水源之前，先去除废水中的污染物质。水中已经存在的天然微生物可促进废水处理，微生物通过消化和分解废物生成降解产物，起到“清洁工”的作用。</t>
+  </si>
+  <si>
+    <t>三八节，与美丽肌肤相约</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=203053461&amp;idx=1&amp;sn=3453ccdcecd5dc625cf2e2eee688dc97&amp;chksm=1658aec1212f27d7a368c3b94201fad83d15a38c3753e81a6c2863eba0fb18f725e5df7e7007#rd</t>
+  </si>
+  <si>
+    <t>点击上方蓝色文字关注诺维信生物科技博览~ 皮肤是女人最美丽的一件衣服，俗话说一白遮三丑，白净水嫩，富有弹性的肌肤始终是每一个女性的向往与追求。但是随着岁月的慢慢积累，脸部皮肤开吃变得粗糙、松弛以及黯淡，如何让皮肤重新焕发光彩变成了每一个爱美人士头痛的事情。皮肤填充，作为一种非手术性美容术，可以通过注入软组织替代物来矫正外形缺陷，可以起到修复面部老化的作用。  现有的皮肤填充物产品可根据其构成材料（合成或天然材料）、适应症和矫形的持续时间（非永久性、半永久性或永久性填充物）来分类。 由于半永久性和永久性填充物缺乏长期临床安全性方面的数据，而且在注入后有碍美观的填充物可能会移动位置，因此非永久性填充物是目前最常用的皮肤填充产品。 在非永久性填充物中，来源于天然物质的填充物由于安全性好、可吸收性强而受到青睐。尤其是透明质酸 (HA) 皮肤填充物，因其易于管理和无可比拟的有效性与安全性，每年都在大量的美容术中得到应用。 透明质酸可以改善皮肤老化 尽管透明质酸在人体内无所不在，但皮肤内的透明质酸最为丰富，存在于真皮和表皮中。透明质酸在皮肤中的作用包括形成细胞外间隙，维持组织水分和调节细胞性活动，如细胞增殖、细胞迁移和细胞分化。 随着年龄的增长，皮肤内的透明质酸含量会逐渐减少。这对皮肤的含水量和肌理有直接的影响，会使皮肤变得干燥，不够饱满有弹性。此外，老化的皮肤会产生皱纹和色素沉着，这是因为微血管形成速度变慢，营养物质流失/老废细胞脱落变慢。 由于透明质酸分子的天然生物活性，注入来源于线性透明质酸（电波拉皮）或交联透明质酸的皮肤填充物有助于恢复皮肤的基本结构，让皮肤焕发青春活力。透明质酸填充物的生物相容性好，且很少会给患者带来不良反应。此外，它们不需要进行皮肤测试，且可通过内源性透明质酸酶在体内自然降解。透明质酸皮肤填充物因其易于管理和无可比拟的有效性与安全性，每年都在大量的美容术中得到应用。 透明质酸皮肤填充物的首选成分 Hyasis 来源于世界上首个、也是目前唯一的重组生产工艺，采用安全无毒且不会致病的菌株枯草杆菌发酵而成。该工艺采用基本培养基、非动物性原料和专有的水基技术，在生产过程中的任一阶段都不必使用有机溶剂。由此得到的透明质酸钠材料具有无可比拟的高纯度，尤其是核酸、蛋白质、细菌内毒素含量低下，微生物污染风险低，当该材料作为线性或交联透明质酸被注入时，能减少超敏性反应。 （部分图片来源于网络）</t>
+  </si>
+  <si>
+    <t>诺维信酶助您新年洗衣不用愁（下）</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=202796000&amp;idx=1&amp;sn=0e466d1c48251cbac8103831aa6804f5&amp;chksm=16549cb4212315a28e98bf2bd6a8475e697d52e3d190f2cbc226dbfff13099f084a769d8e780#rd</t>
+  </si>
+  <si>
+    <t>点击上方蓝色文字关注诺维信生物科技博览吧！ 酶是一种对多种类型污渍有卓越清洁能力的活力因子，能够去除日常生活中的顽固污渍，提升消费者对洗涤效果的满意度。正所谓术业有专攻，不同种类的酶能够溶解不同的污渍。那么让我们来看看不同种类的酶的具体攻克对象吧。蛋白酶就是对付“蛋白类污渍”的高手，蛋白类污渍包括日常生活中衣领、袖口的人体分泌物以及血、奶、草汁和各种食品等蛋白质污垢。脂肪酶则能够有效分解油脂类污渍，如食用油、色拉油、火锅底料、口红、奶油及各种酱汁。淀粉酶可去除米饭、面条等一类污渍，特别能有效去除婴儿食品类污渍，助年轻妈妈一臂之力。甘露聚糖酶能够有效分解沙拉酱、番茄酱、冰淇淋、奶昔以及一些个人护理产品的污渍，如润肤霜、牙膏等。所有的酶制剂的原料都来自于大自然，通过发酵工艺生产，并可完全被生物降解。生产和使用不会对环境造成任何危害，并可以完全替代化学品的使用，实现绿色环保洗涤。</t>
+  </si>
+  <si>
+    <t>诺维信酶助您新年洗衣不用愁（上）</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=202780350&amp;idx=1&amp;sn=c7fd7645f917748642018810e2689998&amp;chksm=1654d9ea212350fccd97c86e1507ae32f9d1c31cfec4d243a49870876b34afdfec9b85e1e069#rd</t>
+  </si>
+  <si>
+    <t>新年穿新衣，新衣不起球</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=202662196&amp;idx=1&amp;sn=e9ae012503683a09830be50a5312876f&amp;chksm=1656966021211f76becc35138fe4be0d2299fa0e33b8f90c3d49dfb5dd3d6711fcec53e7df3d#rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击上方蓝色文字关注诺维信生物科技博览吧！ 在中国的传统习俗中，过新年穿新衣的历史由来已久，它和贴春联、放鞭炮、吃饺子一样，是节日不可或缺的要素。多姿多彩的春节新衣，寓意着新年新气象，把节日的气氛烘托得更加浓烈、更加美好。对大多数人来说，过年买件新衣服似乎不仅是为了打扮自己,还寄托着自己对未来的祝福与期盼！春节期间，全国大部分地区气温偏低，毛衣和毛呢大衣都是对抗寒冬不可或缺的温暖装备，相比于臃肿显胖的羽绒服，毛衣和毛呢大衣不仅具有御寒的功效，还兼具轻盈美观易搭配的特点，因此成为了人们节日购置新衣的首选。 可是由于毛线的特殊材质，毛衣和毛呢大衣穿时间长了或者清洗过后难免会起球，严重影响了衣物的美观性。毛球修剪器虽然能够去除一部分毛球，但终究治标不治本。究竟用什么办法才能真正去除这些恼人的毛球呢？ 原来，毛球的形成原理是因为毛衣中的纤维在穿着、洗涤的过程中，因外力作用易勾出形成环状或单头脱离状，经反复摩擦后，毛纤维纠结在一起，形成球状。生物抛光技术可以改善织物表面，通过酶的作用弱化纤维末端，并通过机械作用将其清除。去除了纤维末端至后，就不会发生起球，色泽也会更明亮，织物表面看起来更新、更洁净。生物抛光生物抛光是一种利用纤维素酶修整棉织物表面的织物整理过程。诺维信的生物抛光解决方案可永久防起球并随时间的推移提高织物的柔滑触感。生物抛光可对织物特性形成永久性改变，但没有使用任何化学涂层或烧毛的方法。诺维信的酶解决方案是一种可生物降解的天然蛋白质，仅需很少剂量即可达到所需效果。生物抛光是传统化学试剂的理想替代品，不会显著增加废水负荷。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击上方蓝色文字关注诺维信生物科技博览吧~ 新春佳节，丰盛的美食摆了满满的一桌，阖家团聚，围坐桌旁，一家人共吃团圆饭。乐享美食之后，人们总会发现自己的新衣服沾上了油渍菜渍。这些难以去除的顽固污渍大大降低了衣物的美观程度，衣服变得让人舍不得扔掉，但又不能继续穿着。 普通的洗涤产品似乎对这些顽固污渍束手无策，漂白水或彩漂水一类的强氧化性洗剂会损伤衣物纤维，造成褪色或者材质发硬的现象。那么，怎样才能让这些衣物亮洁如新呢？生物技术可以替代洗涤剂中传统化工产品和表面活性剂，以一种环保的方式实现去污、增白、护色和织物护理。这其中蕴藏的奥秘就是酶制剂。洗涤剂中的酶可以分解顽固污渍中的蛋白、淀粉、甘露聚糖与果胶，通过消除污渍在衣服上的沉积，去除受损微纤维，释放其中隐藏的污垢颗粒，防止织物暗沉，并且酶还可以去除织物表面突起的纤维以及毛球，让衣物看上去光滑又亮泽。酶制剂可以去除许多顽固污渍，这当中就包括了让许多消费者头疼的水果污渍。细数那些年我们曾经被水果汁毁过的衣物，不由得感叹起石榴汁、桃汁这些“杀人不见血”的凶手啊！以前的传统洗涤剂不包含去除水果和果胶污渍的有效成分。并且传统漂白洗涤剂也仅仅是掩盖了污渍。而运用生物技术制成的酶制剂则可以有效溶解造成污渍的果胶物质，从而从根本上去除各种水果污渍。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=2650316046&amp;idx=1&amp;sn=e7475af0aacf967693a336f781e111c3&amp;chksm=87ba6a5ab0cde34c0d6959c502abe461ca24d9eca05d8a6e75a593511930f559cc2f18674f3f#rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=2650316146&amp;idx=1&amp;sn=c3c210756e8af59cdb802f93c10d5170&amp;chksm=87ba6a26b0cde330659198aaee1276c04b2710b5699bb46b14e140b8a20bed56bde45e3ab7dc#rd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +576,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -300,10 +612,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -314,9 +629,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,18 +935,18 @@
     <col min="4" max="4" width="123.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -877,7 +1205,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -943,11 +1271,11 @@
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -955,13 +1283,13 @@
         <v>42727.684942129628</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -969,18 +1297,443 @@
         <v>42710.713877314818</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>73</v>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>42631.698518518519</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>42557.933645833335</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>42521.790775462963</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>42497.926678240743</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>42489.945092592592</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>42479.509884259256</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>42444.717523148145</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>42440.922708333332</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>42437.507268518515</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>42304.709594907406</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>42298.711655092593</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>42245.909837962965</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>42233.706944444442</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>42207.708472222221</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>42195.926215277781</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42168.950532407405</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>42166.710879629631</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>42164.710648148146</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>42160.940150462964</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>42136.496851851851</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>42129.774351851855</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>42118.920891203707</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>42116.922615740739</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>42107.623611111114</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>42099.50236111111</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>42084.700995370367</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>42071.582569444443</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>42060.581724537034</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>42059.449050925927</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>42051.714143518519</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C35" r:id="rId1" location="rd"/>
+    <hyperlink ref="C27" r:id="rId2" location="rd"/>
+    <hyperlink ref="C25" r:id="rId3" location="rd"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/filtered_data/final_result/final_result.xlsx
+++ b/filtered_data/final_result/final_result.xlsx
@@ -389,12 +389,6 @@
     <t>诺维信一日斩获两项创新殊荣：生物技术推进可持续发展</t>
   </si>
   <si>
-    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=206606084&amp;idx=1&amp;sn=0d817888d2390a9d83ec57af10b639ce&amp;chksm=161278502165f14684415c538fb0e20c61df3ef332dcd3fed3f83b799803c0a3849dd33b7cae#rd</t>
-  </si>
-  <si>
-    <t>点击上方蓝色字体关注诺维信生物科技博览~【2015年7月22日，中国北京】全球生物解决方案领先者诺维信公司在今天举行的第四届中国财经峰会以及2015关注气候中国峰会上分别荣获 “最佳企业创新奖” 和 “中国绿色技术创新成果” 两大殊荣。 作为引领生物创新的世界先导，诺维信始终围绕可持续发展议题，不断推出改变生活的创新产品和解决方案，用生物技术为中国及世界的可持续发展做出非凡贡献。权威评定，成就多项殊荣中国财经峰会是经济领域最具影响力的思想盛会之一，诺维信经众多权威专家评定，最终凭借卓越的创新能力，脱颖而出摘得“最佳企业创新” 桂冠。该项殊荣是对诺维信始终秉承经营业绩、环境表现和社会责任并举的 ‘三重底线’ 的最佳表彰。中国财经峰会组委会表示：“ 诺维信坚持生物创新，不断提供可持续发展的解决方案，帮助客户使用更少原料、生产更多产品，减少对世界资源的消耗，是经济新常态下企业创新的典范。”同日，在京举行的另一以“行动的力量” 为主题的2015关注气候中国峰会，旨在彰显中国企业在绿色低碳发展领域的努力及成效。力求通过国际对话、专家研判以及思想碰撞等多角度、全方位展现中国企业在关注气候、促进生态文明、实现可持续发展方面的扎实行动和成功经验，向世界传递来自中国典范企业、区域的声音。诺维信同时荣登“中国绿色技术创新成果” 榜单，充分证明其绿色创新技术为中国行业和社会带来突出影响。诺维信亚太区总裁戴彤于当日分别出席两项颁奖活动并表示：今天问鼎双料嘉奖，反映了中国公众对诺维信公司的高度赞誉和认可，我们感到十分荣幸和欣慰。一直以来，创新就是诺维信的企业基因，以生物创新带动绿色可持续发展已成为诺维信人的共识，为我们使命所在。在诺维信的不断努力下，仅二代纤维素燃料乙醇一个领域，每年就可在生产过程中实现碳减排近3万吨； 2014年，诺维信生物技术的各项应用共为全球工业生产减少了约6000万吨二氧化碳排放，相当于2500万辆小汽车的年排放量。未来，诺维信将继续积极倡导并有效推动生态工业、农业和循环经济；更加植根中国发展，成为中国可持续发展进程中最值得信赖的重要战略合作伙伴。”持续创新，推动可持续发展诺维信强调经济、社会、环境在未来可持续业务增长中创造价值和贡献。诺维信的产品生命周期评估显示，酶的应用可显著节约原材料、化学品、能耗并提高质量。诺维信始终坚持创新，不断在洗涤、食品饮料、生物燃料、农业及饲料、微生物及生物制药等多个领域实现技术突破，成功运用生物科技实现降低洗衣温度、提升生产能效、提高农业产量和减少化学品添加，推进可持续发展的健康生活方式。近日，诺维信联手立白在中国发布国内首款攻克生物酶在洗衣液中应用难题的新品——永维酶洗衣液，助力合作伙伴以更绿色的产品开拓中高端洗衣液市场。面对人口不断增长致使粮食与食品需求激增的现状，诺维信积极研发并与合作伙伴达成农业联盟，用生物技术克服现行化学肥料和化学农药对生态环境的污染，同时降低成本、改善农作物品质等使种植业步入良态循环，长效增产。今天人们正孜孜不倦地寻求可再生能源的替代能源，由诺维信最新推出的Eversa®，是市场上第一个利用废油来生产生物柴油的酶制剂解决方案。与此同时，诺维信的Cellic® 作为纤维素乙醇产生过程中必不可少的催化剂，它的问世让农业废弃物从环境、大气污染源之一，变成输送未来清洁能源的原料。到2020年，诺维信全球还计划推出10项改变生活的革命性创新产品，实现二氧化碳减排1亿吨的重大目标。诺维信的愿景就是在更繁荣的经济，更清洁的能源和更美好的生活之间实现和谐与统一。长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。</t>
-  </si>
-  <si>
     <t>世界人口日|如何供养全球70亿人口？</t>
   </si>
   <si>
@@ -547,6 +541,14 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=2650316146&amp;idx=1&amp;sn=c3c210756e8af59cdb802f93c10d5170&amp;chksm=87ba6a26b0cde330659198aaee1276c04b2710b5699bb46b14e140b8a20bed56bde45e3ab7dc#rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA3OTI0OTk3OQ==&amp;mid=206606084&amp;idx=1&amp;sn=0d817888d2390a9d83ec57af10b639ce&amp;chksm=161278502165f14684415c538fb0e20c61df3ef332dcd3fed3f83b799803c0a3849dd33b7cae#rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上方蓝色字体关注诺维信生物科技博览~【2015年7月22日，中国北京】全球生物解决方案领先者诺维信公司在今天举行的第四届中国财经峰会以及2015关注气候中国峰会上分别荣获 “最佳企业创新奖” 和 “中国绿色技术创新成果” 两大殊荣。 作为引领生物创新的世界先导，诺维信始终围绕可持续发展议题，不断推出改变生活的创新产品和解决方案，用生物技术为中国及世界的可持续发展做出非凡贡献。权威评定，成就多项殊荣中国财经峰会是经济领域最具影响力的思想盛会之一，诺维信经众多权威专家评定，最终凭借卓越的创新能力，脱颖而出摘得“最佳企业创新” 桂冠。该项殊荣是对诺维信始终秉承经营业绩、环境表现和社会责任并举的 ‘三重底线’ 的最佳表彰。中国财经峰会组委会表示：“ 诺维信坚持生物创新，不断提供可持续发展的解决方案，帮助客户使用更少原料、生产更多产品，减少对世界资源的消耗，是经济新常态下企业创新的典范。”同日，在京举行的另一以“行动的力量” 为主题的2015关注气候中国峰会，旨在彰显中国企业在绿色低碳发展领域的努力及成效。力求通过国际对话、专家研判以及思想碰撞等多角度、全方位展现中国企业在关注气候、促进生态文明、实现可持续发展方面的扎实行动和成功经验，向世界传递来自中国典范企业、区域的声音。诺维信同时荣登“中国绿色技术创新成果” 榜单，充分证明其绿色创新技术为中国行业和社会带来突出影响。诺维信亚太区总裁戴彤于当日分别出席两项颁奖活动并表示：今天问鼎双料嘉奖，反映了中国公众对诺维信公司的高度赞誉和认可，我们感到十分荣幸和欣慰。一直以来，创新就是诺维信的企业基因，以生物创新带动绿色可持续发展已成为诺维信人的共识，为我们使命所在。在诺维信的不断努力下，仅二代纤维素燃料乙醇一个领域，每年就可在生产过程中实现碳减排近3万吨； 2014年，诺维信生物技术的各项应用共为全球工业生产减少了约6000万吨二氧化碳排放，相当于2500万辆小汽车的年排放量。未来，诺维信将继续积极倡导并有效推动生态工业、农业和循环经济；更加植根中国发展，成为中国可持续发展进程中最值得信赖的重要战略合作伙伴。”持续创新，推动可持续发展诺维信强调经济、社会、环境在未来可持续业务增长中创造价值和贡献。诺维信的产品生命周期评估显示，酶的应用可显著节约原材料、化学品、能耗并提高质量。诺维信始终坚持创新，不断在洗涤、食品饮料、生物燃料、农业及饲料、微生物及生物制药等多个领域实现技术突破，成功运用生物科技实现降低洗衣温度、提升生产能效、提高农业产量和减少化学品添加，推进可持续发展的健康生活方式。近日，诺维信联手立白在中国发布国内首款攻克生物酶在洗衣液中应用难题的新品——永维酶洗衣液，助力合作伙伴以更绿色的产品开拓中高端洗衣液市场。面对人口不断增长致使粮食与食品需求激增的现状，诺维信积极研发并与合作伙伴达成农业联盟，用生物技术克服现行化学肥料和化学农药对生态环境的污染，同时降低成本、改善农作物品质等使种植业步入良态循环，长效增产。今天人们正孜孜不倦地寻求可再生能源的替代能源，由诺维信最新推出的Eversa®，是市场上第一个利用废油来生产生物柴油的酶制剂解决方案。与此同时，诺维信的Cellic® 作为纤维素乙醇产生过程中必不可少的催化剂，它的问世让农业废弃物从环境、大气污染源之一，变成输送未来清洁能源的原料。到2020年，诺维信全球还计划推出10项改变生活的革命性创新产品，实现二氧化碳减排1亿吨的重大目标。诺维信的愿景就是在更繁荣的经济，更清洁的能源和更美好的生活之间实现和谐与统一。长按下方二维码，选择“识别图中二维码”，了解诺维信中国运营业务，领略生物技术的魅力，更多礼品等待您。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1272,7 +1274,7 @@
         <v>65</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>66</v>
@@ -1300,7 +1302,7 @@
         <v>70</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>71</v>
@@ -1495,11 +1497,11 @@
       <c r="B41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>115</v>
+      <c r="C41" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1507,13 +1509,13 @@
         <v>42195.926215277781</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1521,13 +1523,13 @@
         <v>42168.950532407405</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1535,13 +1537,13 @@
         <v>42166.710879629631</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1549,13 +1551,13 @@
         <v>42164.710648148146</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1563,13 +1565,13 @@
         <v>42160.940150462964</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1577,13 +1579,13 @@
         <v>42136.496851851851</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1591,13 +1593,13 @@
         <v>42129.774351851855</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1605,13 +1607,13 @@
         <v>42118.920891203707</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1619,13 +1621,13 @@
         <v>42116.922615740739</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1633,13 +1635,13 @@
         <v>42107.623611111114</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1647,13 +1649,13 @@
         <v>42099.50236111111</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1661,13 +1663,13 @@
         <v>42084.700995370367</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1675,13 +1677,13 @@
         <v>42071.582569444443</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1689,13 +1691,13 @@
         <v>42060.581724537034</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1703,13 +1705,13 @@
         <v>42059.449050925927</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1717,13 +1719,13 @@
         <v>42051.714143518519</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1732,8 +1734,9 @@
     <hyperlink ref="C35" r:id="rId1" location="rd"/>
     <hyperlink ref="C27" r:id="rId2" location="rd"/>
     <hyperlink ref="C25" r:id="rId3" location="rd"/>
+    <hyperlink ref="C41" r:id="rId4" location="rd"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>